--- a/BackTest/2020-01-21 BackTest BTT.xlsx
+++ b/BackTest/2020-01-21 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M195"/>
+  <dimension ref="A1:M196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.404</v>
+        <v>0.4083</v>
       </c>
       <c r="C2" t="n">
-        <v>0.404</v>
+        <v>0.4083</v>
       </c>
       <c r="D2" t="n">
-        <v>0.404</v>
+        <v>0.4083</v>
       </c>
       <c r="E2" t="n">
-        <v>0.404</v>
+        <v>0.4083</v>
       </c>
       <c r="F2" t="n">
-        <v>1404329.9507</v>
+        <v>9000000</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4043633333333333</v>
+        <v>0.4043316666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4082</v>
+        <v>0.404</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4082</v>
+        <v>0.404</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4082</v>
+        <v>0.404</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4082</v>
+        <v>0.404</v>
       </c>
       <c r="F3" t="n">
-        <v>1402757.4866</v>
+        <v>1404329.9507</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4044583333333333</v>
+        <v>0.4043633333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4085</v>
+        <v>0.4082</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4085</v>
+        <v>0.4082</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4085</v>
+        <v>0.4082</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4085</v>
+        <v>0.4082</v>
       </c>
       <c r="F4" t="n">
-        <v>1274.2488</v>
+        <v>1402757.4866</v>
       </c>
       <c r="G4" t="n">
-        <v>0.404585</v>
+        <v>0.4044583333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4058</v>
+        <v>0.4085</v>
       </c>
       <c r="C5" t="n">
         <v>0.4085</v>
@@ -547,13 +547,13 @@
         <v>0.4085</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4057</v>
+        <v>0.4085</v>
       </c>
       <c r="F5" t="n">
-        <v>2526284.1403</v>
+        <v>1274.2488</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4047016666666667</v>
+        <v>0.404585</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,28 +573,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>0.4058</v>
+      </c>
+      <c r="C6" t="n">
         <v>0.4085</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.4088</v>
-      </c>
       <c r="D6" t="n">
-        <v>0.4088</v>
+        <v>0.4085</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4085</v>
+        <v>0.4057</v>
       </c>
       <c r="F6" t="n">
-        <v>1363664.38366164</v>
+        <v>2526284.1403</v>
       </c>
       <c r="G6" t="n">
-        <v>0.40484</v>
+        <v>0.4047016666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -608,28 +608,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4089</v>
+        <v>0.4085</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4089</v>
+        <v>0.4088</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4089</v>
+        <v>0.4088</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4089</v>
+        <v>0.4085</v>
       </c>
       <c r="F7" t="n">
-        <v>3732.1955</v>
+        <v>1363664.38366164</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4049583333333333</v>
+        <v>0.40484</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4101</v>
+        <v>0.4089</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4126</v>
+        <v>0.4089</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4126</v>
+        <v>0.4089</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4101</v>
+        <v>0.4089</v>
       </c>
       <c r="F8" t="n">
-        <v>514873.0215</v>
+        <v>3732.1955</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4051383333333333</v>
+        <v>0.4049583333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4106</v>
+        <v>0.4101</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4052</v>
+        <v>0.4126</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4106</v>
+        <v>0.4126</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4052</v>
+        <v>0.4101</v>
       </c>
       <c r="F9" t="n">
-        <v>11226947.9277</v>
+        <v>514873.0215</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4052166666666666</v>
+        <v>0.4051383333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.411</v>
+        <v>0.4106</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4135</v>
+        <v>0.4052</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4135</v>
+        <v>0.4106</v>
       </c>
       <c r="E10" t="n">
-        <v>0.411</v>
+        <v>0.4052</v>
       </c>
       <c r="F10" t="n">
-        <v>29897.0017</v>
+        <v>11226947.9277</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4054116666666666</v>
+        <v>0.4052166666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4109</v>
+        <v>0.411</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4109</v>
+        <v>0.4135</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4109</v>
+        <v>0.4135</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4109</v>
+        <v>0.411</v>
       </c>
       <c r="F11" t="n">
-        <v>493354</v>
+        <v>29897.0017</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4055399999999999</v>
+        <v>0.4054116666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0.4109</v>
       </c>
       <c r="F12" t="n">
-        <v>3000000</v>
+        <v>493354</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4056399999999999</v>
+        <v>0.4055399999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -830,10 +830,10 @@
         <v>0.4109</v>
       </c>
       <c r="F13" t="n">
-        <v>10000</v>
+        <v>3000000</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4056816666666666</v>
+        <v>0.4056399999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4111</v>
+        <v>0.4109</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4111</v>
+        <v>0.4109</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4111</v>
+        <v>0.4109</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4111</v>
+        <v>0.4109</v>
       </c>
       <c r="F14" t="n">
-        <v>3103202.6898</v>
+        <v>10000</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4057266666666666</v>
+        <v>0.4056816666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4117</v>
+        <v>0.4111</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4117</v>
+        <v>0.4111</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4117</v>
+        <v>0.4111</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4117</v>
+        <v>0.4111</v>
       </c>
       <c r="F15" t="n">
-        <v>1571</v>
+        <v>3103202.6898</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4057816666666666</v>
+        <v>0.4057266666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4122</v>
+        <v>0.4117</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4122</v>
+        <v>0.4117</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4122</v>
+        <v>0.4117</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4122</v>
+        <v>0.4117</v>
       </c>
       <c r="F16" t="n">
-        <v>21722.9619</v>
+        <v>1571</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4058533333333332</v>
+        <v>0.4057816666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4135</v>
+        <v>0.4122</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4135</v>
+        <v>0.4122</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4135</v>
+        <v>0.4122</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4135</v>
+        <v>0.4122</v>
       </c>
       <c r="F17" t="n">
-        <v>79340.102</v>
+        <v>21722.9619</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4059499999999999</v>
+        <v>0.4058533333333332</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>0.4135</v>
       </c>
       <c r="F18" t="n">
-        <v>104552.3551</v>
+        <v>79340.102</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4061049999999999</v>
+        <v>0.4059499999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4123</v>
+        <v>0.4135</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4123</v>
+        <v>0.4135</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4123</v>
+        <v>0.4135</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4123</v>
+        <v>0.4135</v>
       </c>
       <c r="F19" t="n">
-        <v>3000000</v>
+        <v>104552.3551</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4062399999999998</v>
+        <v>0.4061049999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4126</v>
+        <v>0.4123</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4126</v>
+        <v>0.4123</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4126</v>
+        <v>0.4123</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4126</v>
+        <v>0.4123</v>
       </c>
       <c r="F20" t="n">
-        <v>890383.42</v>
+        <v>3000000</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4063349999999998</v>
+        <v>0.4062399999999998</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4135</v>
+        <v>0.4126</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4139</v>
+        <v>0.4126</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4139</v>
+        <v>0.4126</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4135</v>
+        <v>0.4126</v>
       </c>
       <c r="F21" t="n">
-        <v>1258520.556</v>
+        <v>890383.42</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4064383333333332</v>
+        <v>0.4063349999999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4114</v>
+        <v>0.4135</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4114</v>
+        <v>0.4139</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4114</v>
+        <v>0.4139</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4114</v>
+        <v>0.4135</v>
       </c>
       <c r="F22" t="n">
-        <v>15660290.5073</v>
+        <v>1258520.556</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4065</v>
+        <v>0.4064383333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4109</v>
+        <v>0.4114</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4109</v>
+        <v>0.4114</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4109</v>
+        <v>0.4114</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4109</v>
+        <v>0.4114</v>
       </c>
       <c r="F23" t="n">
-        <v>1440</v>
+        <v>15660290.5073</v>
       </c>
       <c r="G23" t="n">
-        <v>0.406555</v>
+        <v>0.4065</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.411</v>
+        <v>0.4109</v>
       </c>
       <c r="C24" t="n">
-        <v>0.411</v>
+        <v>0.4109</v>
       </c>
       <c r="D24" t="n">
-        <v>0.411</v>
+        <v>0.4109</v>
       </c>
       <c r="E24" t="n">
-        <v>0.411</v>
+        <v>0.4109</v>
       </c>
       <c r="F24" t="n">
-        <v>3560702.0965</v>
+        <v>1440</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4066666666666667</v>
+        <v>0.406555</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0.411</v>
       </c>
       <c r="F25" t="n">
-        <v>16218901.449</v>
+        <v>3560702.0965</v>
       </c>
       <c r="G25" t="n">
-        <v>0.40679</v>
+        <v>0.4066666666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>0.411</v>
       </c>
       <c r="F26" t="n">
-        <v>2427022.1162</v>
+        <v>16218901.449</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4069616666666667</v>
+        <v>0.40679</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4109</v>
+        <v>0.411</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4116</v>
+        <v>0.411</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4116</v>
+        <v>0.411</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4089</v>
+        <v>0.411</v>
       </c>
       <c r="F27" t="n">
-        <v>2057421</v>
+        <v>2427022.1162</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4071116666666667</v>
+        <v>0.4069616666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4116</v>
+        <v>0.4109</v>
       </c>
       <c r="C28" t="n">
         <v>0.4116</v>
@@ -1352,13 +1352,13 @@
         <v>0.4116</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4116</v>
+        <v>0.4089</v>
       </c>
       <c r="F28" t="n">
-        <v>313671.0398445</v>
+        <v>2057421</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4072933333333334</v>
+        <v>0.4071116666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4103</v>
+        <v>0.4116</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4073</v>
+        <v>0.4116</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4103</v>
+        <v>0.4116</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4073</v>
+        <v>0.4116</v>
       </c>
       <c r="F29" t="n">
-        <v>10611.8786</v>
+        <v>313671.0398445</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4073766666666667</v>
+        <v>0.4072933333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>0.4103</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4103</v>
+        <v>0.4073</v>
       </c>
       <c r="D30" t="n">
         <v>0.4103</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4103</v>
+        <v>0.4073</v>
       </c>
       <c r="F30" t="n">
-        <v>2678.5031</v>
+        <v>10611.8786</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4074666666666667</v>
+        <v>0.4073766666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4065</v>
+        <v>0.4103</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4087</v>
+        <v>0.4103</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4087</v>
+        <v>0.4103</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4065</v>
+        <v>0.4103</v>
       </c>
       <c r="F31" t="n">
-        <v>1368655.5791</v>
+        <v>2678.5031</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4075916666666667</v>
+        <v>0.4074666666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4083</v>
+        <v>0.4065</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4083</v>
+        <v>0.4087</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4083</v>
+        <v>0.4087</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4083</v>
+        <v>0.4065</v>
       </c>
       <c r="F32" t="n">
-        <v>472616.2062</v>
+        <v>1368655.5791</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4076483333333333</v>
+        <v>0.4075916666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4091</v>
+        <v>0.4083</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4094</v>
+        <v>0.4083</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4094</v>
+        <v>0.4083</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4091</v>
+        <v>0.4083</v>
       </c>
       <c r="F33" t="n">
-        <v>9020852.880999999</v>
+        <v>472616.2062</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4076966666666667</v>
+        <v>0.4076483333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4093</v>
+        <v>0.4091</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4093</v>
+        <v>0.4094</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4093</v>
+        <v>0.4094</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4093</v>
+        <v>0.4091</v>
       </c>
       <c r="F34" t="n">
-        <v>812609.2046000001</v>
+        <v>9020852.880999999</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4077433333333333</v>
+        <v>0.4076966666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4134</v>
+        <v>0.4093</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4134</v>
+        <v>0.4093</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4134</v>
+        <v>0.4093</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4134</v>
+        <v>0.4093</v>
       </c>
       <c r="F35" t="n">
-        <v>1226.1629</v>
+        <v>812609.2046000001</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4078933333333333</v>
+        <v>0.4077433333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4085</v>
+        <v>0.4134</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4133</v>
+        <v>0.4134</v>
       </c>
       <c r="D36" t="n">
         <v>0.4134</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4085</v>
+        <v>0.4134</v>
       </c>
       <c r="F36" t="n">
-        <v>5912562.6625</v>
+        <v>1226.1629</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4080966666666666</v>
+        <v>0.4078933333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4133</v>
+        <v>0.4085</v>
       </c>
       <c r="C37" t="n">
         <v>0.4133</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4133</v>
+        <v>0.4134</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4133</v>
+        <v>0.4085</v>
       </c>
       <c r="F37" t="n">
-        <v>14722.5451</v>
+        <v>5912562.6625</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4082466666666666</v>
+        <v>0.4080966666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>0.4133</v>
       </c>
       <c r="F38" t="n">
-        <v>1500</v>
+        <v>14722.5451</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4083966666666666</v>
+        <v>0.4082466666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4085</v>
+        <v>0.4133</v>
       </c>
       <c r="C39" t="n">
-        <v>0.407</v>
+        <v>0.4133</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4085</v>
+        <v>0.4133</v>
       </c>
       <c r="E39" t="n">
-        <v>0.407</v>
+        <v>0.4133</v>
       </c>
       <c r="F39" t="n">
-        <v>583394.743</v>
+        <v>1500</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4084416666666666</v>
+        <v>0.4083966666666666</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4132</v>
+        <v>0.4085</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4132</v>
+        <v>0.407</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4132</v>
+        <v>0.4085</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4132</v>
+        <v>0.407</v>
       </c>
       <c r="F40" t="n">
-        <v>3669.0682</v>
+        <v>583394.743</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4085883333333333</v>
+        <v>0.4084416666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4107</v>
+        <v>0.4132</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4107</v>
+        <v>0.4132</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4107</v>
+        <v>0.4132</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4107</v>
+        <v>0.4132</v>
       </c>
       <c r="F41" t="n">
-        <v>1416.1637</v>
+        <v>3669.0682</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4086933333333333</v>
+        <v>0.4085883333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>0.4107</v>
       </c>
       <c r="F42" t="n">
-        <v>182236.1796</v>
+        <v>1416.1637</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4088</v>
+        <v>0.4086933333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4061</v>
+        <v>0.4107</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4102</v>
+        <v>0.4107</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4102</v>
+        <v>0.4107</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4061</v>
+        <v>0.4107</v>
       </c>
       <c r="F43" t="n">
-        <v>203876.8993</v>
+        <v>182236.1796</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4088983333333333</v>
+        <v>0.4088</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.408</v>
+        <v>0.4061</v>
       </c>
       <c r="C44" t="n">
-        <v>0.408</v>
+        <v>0.4102</v>
       </c>
       <c r="D44" t="n">
-        <v>0.408</v>
+        <v>0.4102</v>
       </c>
       <c r="E44" t="n">
-        <v>0.408</v>
+        <v>0.4061</v>
       </c>
       <c r="F44" t="n">
-        <v>116617.5614</v>
+        <v>203876.8993</v>
       </c>
       <c r="G44" t="n">
-        <v>0.40896</v>
+        <v>0.4088983333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4102</v>
+        <v>0.408</v>
       </c>
       <c r="C45" t="n">
-        <v>0.407</v>
+        <v>0.408</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4102</v>
+        <v>0.408</v>
       </c>
       <c r="E45" t="n">
-        <v>0.407</v>
+        <v>0.408</v>
       </c>
       <c r="F45" t="n">
-        <v>16430105.3698</v>
+        <v>116617.5614</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4090516666666667</v>
+        <v>0.40896</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>0.4102</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4102</v>
+        <v>0.407</v>
       </c>
       <c r="D46" t="n">
         <v>0.4102</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4102</v>
+        <v>0.407</v>
       </c>
       <c r="F46" t="n">
-        <v>5000</v>
+        <v>16430105.3698</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4091483333333334</v>
+        <v>0.4090516666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.407</v>
+        <v>0.4102</v>
       </c>
       <c r="C47" t="n">
-        <v>0.407</v>
+        <v>0.4102</v>
       </c>
       <c r="D47" t="n">
-        <v>0.407</v>
+        <v>0.4102</v>
       </c>
       <c r="E47" t="n">
-        <v>0.407</v>
+        <v>0.4102</v>
       </c>
       <c r="F47" t="n">
-        <v>177692.6332</v>
+        <v>5000</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4091933333333334</v>
+        <v>0.4091483333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0.407</v>
       </c>
       <c r="F48" t="n">
-        <v>2500.1356</v>
+        <v>177692.6332</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4092900000000001</v>
+        <v>0.4091933333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>0.407</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4102</v>
+        <v>0.407</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4102</v>
+        <v>0.407</v>
       </c>
       <c r="E49" t="n">
         <v>0.407</v>
       </c>
       <c r="F49" t="n">
-        <v>1455430.0949</v>
+        <v>2500.1356</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4094</v>
+        <v>0.4092900000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2122,13 +2122,13 @@
         <v>0.4102</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4061</v>
+        <v>0.407</v>
       </c>
       <c r="F50" t="n">
-        <v>5299244.2595</v>
+        <v>1455430.0949</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4095133333333333</v>
+        <v>0.4094</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.41</v>
+        <v>0.407</v>
       </c>
       <c r="C51" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="D51" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="E51" t="n">
-        <v>0.406</v>
+        <v>0.4061</v>
       </c>
       <c r="F51" t="n">
-        <v>2791516.2139</v>
+        <v>5299244.2595</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4096233333333333</v>
+        <v>0.4095133333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2192,13 +2192,13 @@
         <v>0.41</v>
       </c>
       <c r="E52" t="n">
-        <v>0.41</v>
+        <v>0.406</v>
       </c>
       <c r="F52" t="n">
-        <v>20020.0201</v>
+        <v>2791516.2139</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4097266666666667</v>
+        <v>0.4096233333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>0.41</v>
       </c>
       <c r="F53" t="n">
-        <v>128943.4949</v>
+        <v>20020.0201</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4098233333333334</v>
+        <v>0.4097266666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.406</v>
+        <v>0.41</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4054</v>
+        <v>0.41</v>
       </c>
       <c r="D54" t="n">
-        <v>0.406</v>
+        <v>0.41</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4054</v>
+        <v>0.41</v>
       </c>
       <c r="F54" t="n">
-        <v>8606.895699999999</v>
+        <v>128943.4949</v>
       </c>
       <c r="G54" t="n">
-        <v>0.40984</v>
+        <v>0.4098233333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4089</v>
+        <v>0.406</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4055</v>
+        <v>0.4054</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4089</v>
+        <v>0.406</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4055</v>
+        <v>0.4054</v>
       </c>
       <c r="F55" t="n">
-        <v>7384.4659</v>
+        <v>8606.895699999999</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4098583333333334</v>
+        <v>0.40984</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4085</v>
+        <v>0.4089</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4085</v>
+        <v>0.4055</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4085</v>
+        <v>0.4089</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4085</v>
+        <v>0.4055</v>
       </c>
       <c r="F56" t="n">
-        <v>3363.8547</v>
+        <v>7384.4659</v>
       </c>
       <c r="G56" t="n">
-        <v>0.4099266666666667</v>
+        <v>0.4098583333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4064</v>
+        <v>0.4085</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4078</v>
+        <v>0.4085</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4078</v>
+        <v>0.4085</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4064</v>
+        <v>0.4085</v>
       </c>
       <c r="F57" t="n">
-        <v>4445265.6678</v>
+        <v>3363.8547</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4099816666666668</v>
+        <v>0.4099266666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4078</v>
+        <v>0.4064</v>
       </c>
       <c r="C58" t="n">
         <v>0.4078</v>
@@ -2402,13 +2402,13 @@
         <v>0.4078</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4078</v>
+        <v>0.4064</v>
       </c>
       <c r="F58" t="n">
-        <v>190426.5453</v>
+        <v>4445265.6678</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4099700000000002</v>
+        <v>0.4099816666666668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>0.4078</v>
       </c>
       <c r="F59" t="n">
-        <v>3157676.8194</v>
+        <v>190426.5453</v>
       </c>
       <c r="G59" t="n">
-        <v>0.4099600000000002</v>
+        <v>0.4099700000000002</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4064</v>
+        <v>0.4078</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4053</v>
+        <v>0.4078</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4064</v>
+        <v>0.4078</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4053</v>
+        <v>0.4078</v>
       </c>
       <c r="F60" t="n">
-        <v>11886771.5993</v>
+        <v>3157676.8194</v>
       </c>
       <c r="G60" t="n">
-        <v>0.4099100000000002</v>
+        <v>0.4099600000000002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4059</v>
+        <v>0.4064</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4059</v>
+        <v>0.4053</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4059</v>
+        <v>0.4064</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4059</v>
+        <v>0.4053</v>
       </c>
       <c r="F61" t="n">
-        <v>22874.5184</v>
+        <v>11886771.5993</v>
       </c>
       <c r="G61" t="n">
-        <v>0.4098700000000001</v>
+        <v>0.4099100000000002</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4065</v>
+        <v>0.4059</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4065</v>
+        <v>0.4059</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4065</v>
+        <v>0.4059</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4065</v>
+        <v>0.4059</v>
       </c>
       <c r="F62" t="n">
-        <v>1500</v>
+        <v>22874.5184</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4099116666666668</v>
+        <v>0.4098700000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4061</v>
+        <v>0.4065</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4061</v>
+        <v>0.4065</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4061</v>
+        <v>0.4065</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4061</v>
+        <v>0.4065</v>
       </c>
       <c r="F63" t="n">
-        <v>22874.5184</v>
+        <v>1500</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4098766666666668</v>
+        <v>0.4099116666666668</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4062</v>
+        <v>0.4061</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4062</v>
+        <v>0.4061</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4062</v>
+        <v>0.4061</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4062</v>
+        <v>0.4061</v>
       </c>
       <c r="F64" t="n">
-        <v>247500000</v>
+        <v>22874.5184</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4098383333333334</v>
+        <v>0.4098766666666668</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>0.4062</v>
       </c>
       <c r="F65" t="n">
-        <v>1705000000</v>
+        <v>247500000</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4098000000000001</v>
+        <v>0.4098383333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4081</v>
+        <v>0.4062</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4081</v>
+        <v>0.4062</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4081</v>
+        <v>0.4062</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4081</v>
+        <v>0.4062</v>
       </c>
       <c r="F66" t="n">
-        <v>1543391.7533</v>
+        <v>1705000000</v>
       </c>
       <c r="G66" t="n">
-        <v>0.4097883333333334</v>
+        <v>0.4098000000000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.408</v>
+        <v>0.4081</v>
       </c>
       <c r="C67" t="n">
-        <v>0.408</v>
+        <v>0.4081</v>
       </c>
       <c r="D67" t="n">
-        <v>0.408</v>
+        <v>0.4081</v>
       </c>
       <c r="E67" t="n">
-        <v>0.408</v>
+        <v>0.4081</v>
       </c>
       <c r="F67" t="n">
-        <v>7250.0855</v>
+        <v>1543391.7533</v>
       </c>
       <c r="G67" t="n">
-        <v>0.4097733333333335</v>
+        <v>0.4097883333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4078</v>
+        <v>0.408</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4078</v>
+        <v>0.408</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4078</v>
+        <v>0.408</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4078</v>
+        <v>0.408</v>
       </c>
       <c r="F68" t="n">
-        <v>36664.037</v>
+        <v>7250.0855</v>
       </c>
       <c r="G68" t="n">
-        <v>0.4096933333333335</v>
+        <v>0.4097733333333335</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4047</v>
+        <v>0.4078</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4047</v>
+        <v>0.4078</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4047</v>
+        <v>0.4078</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4047</v>
+        <v>0.4078</v>
       </c>
       <c r="F69" t="n">
-        <v>3060.7755</v>
+        <v>36664.037</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4096850000000001</v>
+        <v>0.4096933333333335</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4051</v>
+        <v>0.4047</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4051</v>
+        <v>0.4047</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4051</v>
+        <v>0.4047</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4051</v>
+        <v>0.4047</v>
       </c>
       <c r="F70" t="n">
-        <v>50000.767</v>
+        <v>3060.7755</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4095450000000002</v>
+        <v>0.4096850000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>0.4051</v>
       </c>
       <c r="F71" t="n">
-        <v>1243.5216</v>
+        <v>50000.767</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4094483333333335</v>
+        <v>0.4095450000000002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>0.4051</v>
       </c>
       <c r="F72" t="n">
-        <v>54547.5085</v>
+        <v>1243.5216</v>
       </c>
       <c r="G72" t="n">
-        <v>0.4093516666666668</v>
+        <v>0.4094483333333335</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4048</v>
+        <v>0.4051</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4048</v>
+        <v>0.4051</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4048</v>
+        <v>0.4051</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4048</v>
+        <v>0.4051</v>
       </c>
       <c r="F73" t="n">
-        <v>11729.6625</v>
+        <v>54547.5085</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4092500000000001</v>
+        <v>0.4093516666666668</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4045</v>
+        <v>0.4048</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4031</v>
+        <v>0.4048</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4045</v>
+        <v>0.4048</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4031</v>
+        <v>0.4048</v>
       </c>
       <c r="F74" t="n">
-        <v>3244711.1336</v>
+        <v>11729.6625</v>
       </c>
       <c r="G74" t="n">
-        <v>0.4091166666666667</v>
+        <v>0.4092500000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4049</v>
+        <v>0.4045</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4049</v>
+        <v>0.4031</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4049</v>
+        <v>0.4045</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4049</v>
+        <v>0.4031</v>
       </c>
       <c r="F75" t="n">
-        <v>3000000</v>
+        <v>3244711.1336</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4090033333333334</v>
+        <v>0.4091166666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4045</v>
+        <v>0.4049</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4045</v>
+        <v>0.4049</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4045</v>
+        <v>0.4049</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4045</v>
+        <v>0.4049</v>
       </c>
       <c r="F76" t="n">
-        <v>443884.1339</v>
+        <v>3000000</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4088750000000001</v>
+        <v>0.4090033333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>0.4045</v>
       </c>
       <c r="F77" t="n">
-        <v>1381934.8835</v>
+        <v>443884.1339</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4087250000000001</v>
+        <v>0.4088750000000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4031</v>
+        <v>0.4045</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4031</v>
+        <v>0.4045</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4031</v>
+        <v>0.4045</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4031</v>
+        <v>0.4045</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0001</v>
+        <v>1381934.8835</v>
       </c>
       <c r="G78" t="n">
-        <v>0.4085516666666668</v>
+        <v>0.4087250000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.403</v>
+        <v>0.4031</v>
       </c>
       <c r="C79" t="n">
-        <v>0.403</v>
+        <v>0.4031</v>
       </c>
       <c r="D79" t="n">
-        <v>0.403</v>
+        <v>0.4031</v>
       </c>
       <c r="E79" t="n">
-        <v>0.403</v>
+        <v>0.4031</v>
       </c>
       <c r="F79" t="n">
-        <v>37200</v>
+        <v>0.0001</v>
       </c>
       <c r="G79" t="n">
-        <v>0.4083966666666667</v>
+        <v>0.4085516666666668</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4025</v>
+        <v>0.403</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4025</v>
+        <v>0.403</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4025</v>
+        <v>0.403</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4025</v>
+        <v>0.403</v>
       </c>
       <c r="F80" t="n">
-        <v>7496581.3092</v>
+        <v>37200</v>
       </c>
       <c r="G80" t="n">
-        <v>0.4082283333333334</v>
+        <v>0.4083966666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>0.4025</v>
       </c>
       <c r="F81" t="n">
-        <v>3965289.5182</v>
+        <v>7496581.3092</v>
       </c>
       <c r="G81" t="n">
-        <v>0.4080383333333334</v>
+        <v>0.4082283333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,19 +3236,19 @@
         <v>0.4025</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4013</v>
+        <v>0.4025</v>
       </c>
       <c r="D82" t="n">
         <v>0.4025</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4013</v>
+        <v>0.4025</v>
       </c>
       <c r="F82" t="n">
-        <v>19996576.7997</v>
+        <v>3965289.5182</v>
       </c>
       <c r="G82" t="n">
-        <v>0.40787</v>
+        <v>0.4080383333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,35 +3268,31 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4054</v>
+        <v>0.4025</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4054</v>
+        <v>0.4013</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4054</v>
+        <v>0.4025</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4054</v>
+        <v>0.4013</v>
       </c>
       <c r="F83" t="n">
-        <v>2737066.0915</v>
+        <v>19996576.7997</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4077783333333333</v>
+        <v>0.40787</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.4013</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
@@ -3307,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4014</v>
+        <v>0.4054</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4013</v>
+        <v>0.4054</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4014</v>
+        <v>0.4054</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4013</v>
+        <v>0.4054</v>
       </c>
       <c r="F84" t="n">
-        <v>6517.665</v>
+        <v>2737066.0915</v>
       </c>
       <c r="G84" t="n">
-        <v>0.4076166666666666</v>
+        <v>0.4077783333333333</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
@@ -3331,16 +3327,12 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0.4054</v>
+        <v>0.4013</v>
       </c>
       <c r="K84" t="n">
         <v>0.4013</v>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3350,38 +3342,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.402</v>
+        <v>0.4014</v>
       </c>
       <c r="C85" t="n">
-        <v>0.402</v>
+        <v>0.4013</v>
       </c>
       <c r="D85" t="n">
-        <v>0.402</v>
+        <v>0.4014</v>
       </c>
       <c r="E85" t="n">
-        <v>0.402</v>
+        <v>0.4013</v>
       </c>
       <c r="F85" t="n">
-        <v>5874.7271</v>
+        <v>6517.665</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4074666666666666</v>
+        <v>0.4076166666666666</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.4013</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>0.4013</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -3393,22 +3383,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4055</v>
+        <v>0.402</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4055</v>
+        <v>0.402</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4055</v>
+        <v>0.402</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4055</v>
+        <v>0.402</v>
       </c>
       <c r="F86" t="n">
-        <v>1328.1321</v>
+        <v>5874.7271</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4073749999999999</v>
+        <v>0.4074666666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3437,19 +3427,19 @@
         <v>0.4055</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4095</v>
+        <v>0.4055</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4095</v>
+        <v>0.4055</v>
       </c>
       <c r="E87" t="n">
         <v>0.4055</v>
       </c>
       <c r="F87" t="n">
-        <v>3697864.74919853</v>
+        <v>1328.1321</v>
       </c>
       <c r="G87" t="n">
-        <v>0.4073399999999999</v>
+        <v>0.4073749999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3475,22 +3465,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4094</v>
+        <v>0.4055</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4094</v>
+        <v>0.4095</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4094</v>
+        <v>0.4095</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4094</v>
+        <v>0.4055</v>
       </c>
       <c r="F88" t="n">
-        <v>153954.357</v>
+        <v>3697864.74919853</v>
       </c>
       <c r="G88" t="n">
-        <v>0.4073033333333333</v>
+        <v>0.4073399999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3528,10 +3518,10 @@
         <v>0.4094</v>
       </c>
       <c r="F89" t="n">
-        <v>92909.2997</v>
+        <v>153954.357</v>
       </c>
       <c r="G89" t="n">
-        <v>0.4073383333333334</v>
+        <v>0.4073033333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3557,22 +3547,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4091</v>
+        <v>0.4094</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4033</v>
+        <v>0.4094</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4091</v>
+        <v>0.4094</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4032</v>
+        <v>0.4094</v>
       </c>
       <c r="F90" t="n">
-        <v>914964.1522</v>
+        <v>92909.2997</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4072216666666667</v>
+        <v>0.4073383333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3598,22 +3588,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4089</v>
+        <v>0.4091</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4089</v>
+        <v>0.4033</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4089</v>
+        <v>0.4091</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4089</v>
+        <v>0.4032</v>
       </c>
       <c r="F91" t="n">
-        <v>1260.428</v>
+        <v>914964.1522</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4072250000000001</v>
+        <v>0.4072216666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3639,22 +3629,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4039</v>
+        <v>0.4089</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4039</v>
+        <v>0.4089</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4039</v>
+        <v>0.4089</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4039</v>
+        <v>0.4089</v>
       </c>
       <c r="F92" t="n">
-        <v>12707.7548</v>
+        <v>1260.428</v>
       </c>
       <c r="G92" t="n">
-        <v>0.4071516666666667</v>
+        <v>0.4072250000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3680,22 +3670,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4075</v>
+        <v>0.4039</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4075</v>
+        <v>0.4039</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4075</v>
+        <v>0.4039</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4075</v>
+        <v>0.4039</v>
       </c>
       <c r="F93" t="n">
-        <v>121998.4125</v>
+        <v>12707.7548</v>
       </c>
       <c r="G93" t="n">
-        <v>0.40712</v>
+        <v>0.4071516666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3721,22 +3711,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.406</v>
+        <v>0.4075</v>
       </c>
       <c r="C94" t="n">
-        <v>0.406</v>
+        <v>0.4075</v>
       </c>
       <c r="D94" t="n">
-        <v>0.406</v>
+        <v>0.4075</v>
       </c>
       <c r="E94" t="n">
-        <v>0.406</v>
+        <v>0.4075</v>
       </c>
       <c r="F94" t="n">
-        <v>7142.85714285</v>
+        <v>121998.4125</v>
       </c>
       <c r="G94" t="n">
-        <v>0.407065</v>
+        <v>0.40712</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3762,22 +3752,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4059</v>
+        <v>0.406</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4059</v>
+        <v>0.406</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4059</v>
+        <v>0.406</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4059</v>
+        <v>0.406</v>
       </c>
       <c r="F95" t="n">
-        <v>501337.111</v>
+        <v>7142.85714285</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4069399999999999</v>
+        <v>0.407065</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3803,22 +3793,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4042</v>
+        <v>0.4059</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4042</v>
+        <v>0.4059</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4042</v>
+        <v>0.4059</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4042</v>
+        <v>0.4059</v>
       </c>
       <c r="F96" t="n">
-        <v>6505.4346</v>
+        <v>501337.111</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4067883333333333</v>
+        <v>0.4069399999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3844,22 +3834,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.406</v>
+        <v>0.4042</v>
       </c>
       <c r="C97" t="n">
-        <v>0.406</v>
+        <v>0.4042</v>
       </c>
       <c r="D97" t="n">
-        <v>0.406</v>
+        <v>0.4042</v>
       </c>
       <c r="E97" t="n">
-        <v>0.406</v>
+        <v>0.4042</v>
       </c>
       <c r="F97" t="n">
-        <v>3682.26600985</v>
+        <v>6505.4346</v>
       </c>
       <c r="G97" t="n">
-        <v>0.4066666666666666</v>
+        <v>0.4067883333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3885,22 +3875,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4044</v>
+        <v>0.406</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4044</v>
+        <v>0.406</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4044</v>
+        <v>0.406</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4044</v>
+        <v>0.406</v>
       </c>
       <c r="F98" t="n">
-        <v>14091.2718</v>
+        <v>3682.26600985</v>
       </c>
       <c r="G98" t="n">
-        <v>0.4065183333333333</v>
+        <v>0.4066666666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3926,19 +3916,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.406</v>
+        <v>0.4044</v>
       </c>
       <c r="C99" t="n">
-        <v>0.407</v>
+        <v>0.4044</v>
       </c>
       <c r="D99" t="n">
-        <v>0.407</v>
+        <v>0.4044</v>
       </c>
       <c r="E99" t="n">
-        <v>0.406</v>
+        <v>0.4044</v>
       </c>
       <c r="F99" t="n">
-        <v>2690400.3617</v>
+        <v>14091.2718</v>
       </c>
       <c r="G99" t="n">
         <v>0.4065183333333333</v>
@@ -3967,7 +3957,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.407</v>
+        <v>0.406</v>
       </c>
       <c r="C100" t="n">
         <v>0.407</v>
@@ -3976,13 +3966,13 @@
         <v>0.407</v>
       </c>
       <c r="E100" t="n">
-        <v>0.407</v>
+        <v>0.406</v>
       </c>
       <c r="F100" t="n">
-        <v>400634.1548</v>
+        <v>2690400.3617</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4064149999999999</v>
+        <v>0.4065183333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4020,10 +4010,10 @@
         <v>0.407</v>
       </c>
       <c r="F101" t="n">
-        <v>206887.2308</v>
+        <v>400634.1548</v>
       </c>
       <c r="G101" t="n">
-        <v>0.4063533333333333</v>
+        <v>0.4064149999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4061,10 +4051,10 @@
         <v>0.407</v>
       </c>
       <c r="F102" t="n">
-        <v>1144068.2204</v>
+        <v>206887.2308</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4062916666666666</v>
+        <v>0.4063533333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4093,19 +4083,19 @@
         <v>0.407</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4071</v>
+        <v>0.407</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4071</v>
+        <v>0.407</v>
       </c>
       <c r="E103" t="n">
         <v>0.407</v>
       </c>
       <c r="F103" t="n">
-        <v>1430436.71099015</v>
+        <v>1144068.2204</v>
       </c>
       <c r="G103" t="n">
-        <v>0.40624</v>
+        <v>0.4062916666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4131,7 +4121,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4071</v>
+        <v>0.407</v>
       </c>
       <c r="C104" t="n">
         <v>0.4071</v>
@@ -4140,13 +4130,13 @@
         <v>0.4071</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4071</v>
+        <v>0.407</v>
       </c>
       <c r="F104" t="n">
-        <v>2376760.3378</v>
+        <v>1430436.71099015</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4062249999999999</v>
+        <v>0.40624</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4172,22 +4162,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4057</v>
+        <v>0.4071</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4057</v>
+        <v>0.4071</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4057</v>
+        <v>0.4071</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4057</v>
+        <v>0.4071</v>
       </c>
       <c r="F105" t="n">
-        <v>336456.7919</v>
+        <v>2376760.3378</v>
       </c>
       <c r="G105" t="n">
-        <v>0.4062033333333332</v>
+        <v>0.4062249999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4213,22 +4203,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4089</v>
+        <v>0.4057</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4089</v>
+        <v>0.4057</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4089</v>
+        <v>0.4057</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4089</v>
+        <v>0.4057</v>
       </c>
       <c r="F106" t="n">
-        <v>17988.3136</v>
+        <v>336456.7919</v>
       </c>
       <c r="G106" t="n">
-        <v>0.4061816666666666</v>
+        <v>0.4062033333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4266,10 +4256,10 @@
         <v>0.4089</v>
       </c>
       <c r="F107" t="n">
-        <v>1367.0641</v>
+        <v>17988.3136</v>
       </c>
       <c r="G107" t="n">
-        <v>0.4062133333333333</v>
+        <v>0.4061816666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4295,22 +4285,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4094</v>
+        <v>0.4089</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4094</v>
+        <v>0.4089</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4094</v>
+        <v>0.4089</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4094</v>
+        <v>0.4089</v>
       </c>
       <c r="F108" t="n">
-        <v>2600</v>
+        <v>1367.0641</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4062533333333332</v>
+        <v>0.4062133333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4336,22 +4326,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.41</v>
+        <v>0.4094</v>
       </c>
       <c r="C109" t="n">
-        <v>0.41</v>
+        <v>0.4094</v>
       </c>
       <c r="D109" t="n">
-        <v>0.41</v>
+        <v>0.4094</v>
       </c>
       <c r="E109" t="n">
-        <v>0.41</v>
+        <v>0.4094</v>
       </c>
       <c r="F109" t="n">
-        <v>1216472.1853</v>
+        <v>2600</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4062499999999999</v>
+        <v>0.4062533333333332</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4389,10 +4379,10 @@
         <v>0.41</v>
       </c>
       <c r="F110" t="n">
-        <v>2488.8004</v>
+        <v>1216472.1853</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4062466666666666</v>
+        <v>0.4062499999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4418,7 +4408,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.4087</v>
+        <v>0.41</v>
       </c>
       <c r="C111" t="n">
         <v>0.41</v>
@@ -4427,10 +4417,10 @@
         <v>0.41</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4087</v>
+        <v>0.41</v>
       </c>
       <c r="F111" t="n">
-        <v>2327011.5974</v>
+        <v>2488.8004</v>
       </c>
       <c r="G111" t="n">
         <v>0.4062466666666666</v>
@@ -4459,22 +4449,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4061</v>
+        <v>0.4087</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4061</v>
+        <v>0.41</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4061</v>
+        <v>0.41</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4061</v>
+        <v>0.4087</v>
       </c>
       <c r="F112" t="n">
-        <v>2066756.744</v>
+        <v>2327011.5974</v>
       </c>
       <c r="G112" t="n">
-        <v>0.4061816666666666</v>
+        <v>0.4062466666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4500,19 +4490,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.41</v>
+        <v>0.4061</v>
       </c>
       <c r="C113" t="n">
-        <v>0.41</v>
+        <v>0.4061</v>
       </c>
       <c r="D113" t="n">
-        <v>0.41</v>
+        <v>0.4061</v>
       </c>
       <c r="E113" t="n">
-        <v>0.41</v>
+        <v>0.4061</v>
       </c>
       <c r="F113" t="n">
-        <v>20373.8458</v>
+        <v>2066756.744</v>
       </c>
       <c r="G113" t="n">
         <v>0.4061816666666666</v>
@@ -4553,10 +4543,10 @@
         <v>0.41</v>
       </c>
       <c r="F114" t="n">
-        <v>29569.2853</v>
+        <v>20373.8458</v>
       </c>
       <c r="G114" t="n">
-        <v>0.4062583333333333</v>
+        <v>0.4061816666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4594,10 +4584,10 @@
         <v>0.41</v>
       </c>
       <c r="F115" t="n">
-        <v>2487.5622</v>
+        <v>29569.2853</v>
       </c>
       <c r="G115" t="n">
-        <v>0.4063333333333333</v>
+        <v>0.4062583333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4635,10 +4625,10 @@
         <v>0.41</v>
       </c>
       <c r="F116" t="n">
-        <v>2464.8756</v>
+        <v>2487.5622</v>
       </c>
       <c r="G116" t="n">
-        <v>0.4063583333333333</v>
+        <v>0.4063333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4676,10 +4666,10 @@
         <v>0.41</v>
       </c>
       <c r="F117" t="n">
-        <v>357811.1307</v>
+        <v>2464.8756</v>
       </c>
       <c r="G117" t="n">
-        <v>0.4063949999999999</v>
+        <v>0.4063583333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4717,10 +4707,10 @@
         <v>0.41</v>
       </c>
       <c r="F118" t="n">
-        <v>51442.3407</v>
+        <v>357811.1307</v>
       </c>
       <c r="G118" t="n">
-        <v>0.4064316666666665</v>
+        <v>0.4063949999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4746,22 +4736,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4061</v>
+        <v>0.41</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4061</v>
+        <v>0.41</v>
       </c>
       <c r="D119" t="n">
-        <v>0.4061</v>
+        <v>0.41</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4061</v>
+        <v>0.41</v>
       </c>
       <c r="F119" t="n">
-        <v>4360.9137</v>
+        <v>51442.3407</v>
       </c>
       <c r="G119" t="n">
-        <v>0.4064033333333332</v>
+        <v>0.4064316666666665</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4787,22 +4777,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.4098</v>
+        <v>0.4061</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4098</v>
+        <v>0.4061</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4098</v>
+        <v>0.4061</v>
       </c>
       <c r="E120" t="n">
-        <v>0.4098</v>
+        <v>0.4061</v>
       </c>
       <c r="F120" t="n">
-        <v>44974.6108</v>
+        <v>4360.9137</v>
       </c>
       <c r="G120" t="n">
-        <v>0.4064783333333332</v>
+        <v>0.4064033333333332</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4840,10 +4830,10 @@
         <v>0.4098</v>
       </c>
       <c r="F121" t="n">
-        <v>2464.2682</v>
+        <v>44974.6108</v>
       </c>
       <c r="G121" t="n">
-        <v>0.4065433333333332</v>
+        <v>0.4064783333333332</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4881,10 +4871,10 @@
         <v>0.4098</v>
       </c>
       <c r="F122" t="n">
-        <v>2440.2149</v>
+        <v>2464.2682</v>
       </c>
       <c r="G122" t="n">
-        <v>0.4065983333333332</v>
+        <v>0.4065433333333332</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4910,22 +4900,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4065</v>
+        <v>0.4098</v>
       </c>
       <c r="C123" t="n">
-        <v>0.4065</v>
+        <v>0.4098</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4065</v>
+        <v>0.4098</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4065</v>
+        <v>0.4098</v>
       </c>
       <c r="F123" t="n">
-        <v>2491.9015</v>
+        <v>2440.2149</v>
       </c>
       <c r="G123" t="n">
-        <v>0.4066049999999999</v>
+        <v>0.4065983333333332</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4951,22 +4941,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4066</v>
+        <v>0.4065</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4066</v>
+        <v>0.4065</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4066</v>
+        <v>0.4065</v>
       </c>
       <c r="E124" t="n">
-        <v>0.4066</v>
+        <v>0.4065</v>
       </c>
       <c r="F124" t="n">
-        <v>10986.8622</v>
+        <v>2491.9015</v>
       </c>
       <c r="G124" t="n">
-        <v>0.4066116666666666</v>
+        <v>0.4066049999999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5004,10 +4994,10 @@
         <v>0.4066</v>
       </c>
       <c r="F125" t="n">
-        <v>170000</v>
+        <v>10986.8622</v>
       </c>
       <c r="G125" t="n">
-        <v>0.4066183333333333</v>
+        <v>0.4066116666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5033,22 +5023,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4098</v>
+        <v>0.4066</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4098</v>
+        <v>0.4066</v>
       </c>
       <c r="D126" t="n">
-        <v>0.4098</v>
+        <v>0.4066</v>
       </c>
       <c r="E126" t="n">
-        <v>0.4098</v>
+        <v>0.4066</v>
       </c>
       <c r="F126" t="n">
-        <v>2459.4196</v>
+        <v>170000</v>
       </c>
       <c r="G126" t="n">
-        <v>0.4066466666666667</v>
+        <v>0.4066183333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5074,22 +5064,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4066</v>
+        <v>0.4098</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4066</v>
+        <v>0.4098</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4066</v>
+        <v>0.4098</v>
       </c>
       <c r="E127" t="n">
-        <v>0.4066</v>
+        <v>0.4098</v>
       </c>
       <c r="F127" t="n">
-        <v>37491.8182</v>
+        <v>2459.4196</v>
       </c>
       <c r="G127" t="n">
-        <v>0.4066233333333333</v>
+        <v>0.4066466666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5127,10 +5117,10 @@
         <v>0.4066</v>
       </c>
       <c r="F128" t="n">
-        <v>215302.1653</v>
+        <v>37491.8182</v>
       </c>
       <c r="G128" t="n">
-        <v>0.4066033333333333</v>
+        <v>0.4066233333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5156,22 +5146,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4098</v>
+        <v>0.4066</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4098</v>
+        <v>0.4066</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4098</v>
+        <v>0.4066</v>
       </c>
       <c r="E129" t="n">
-        <v>0.4098</v>
+        <v>0.4066</v>
       </c>
       <c r="F129" t="n">
-        <v>1432.6404</v>
+        <v>215302.1653</v>
       </c>
       <c r="G129" t="n">
-        <v>0.4066883333333333</v>
+        <v>0.4066033333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5197,22 +5187,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4066</v>
+        <v>0.4098</v>
       </c>
       <c r="C130" t="n">
-        <v>0.4066</v>
+        <v>0.4098</v>
       </c>
       <c r="D130" t="n">
-        <v>0.4066</v>
+        <v>0.4098</v>
       </c>
       <c r="E130" t="n">
-        <v>0.4066</v>
+        <v>0.4098</v>
       </c>
       <c r="F130" t="n">
-        <v>1305.1443</v>
+        <v>1432.6404</v>
       </c>
       <c r="G130" t="n">
-        <v>0.4067133333333333</v>
+        <v>0.4066883333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5238,22 +5228,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4098</v>
+        <v>0.4066</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4098</v>
+        <v>0.4066</v>
       </c>
       <c r="D131" t="n">
-        <v>0.4098</v>
+        <v>0.4066</v>
       </c>
       <c r="E131" t="n">
-        <v>0.4098</v>
+        <v>0.4066</v>
       </c>
       <c r="F131" t="n">
-        <v>1440.6881</v>
+        <v>1305.1443</v>
       </c>
       <c r="G131" t="n">
-        <v>0.4067916666666667</v>
+        <v>0.4067133333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5279,22 +5269,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4066</v>
+        <v>0.4098</v>
       </c>
       <c r="C132" t="n">
-        <v>0.4066</v>
+        <v>0.4098</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4066</v>
+        <v>0.4098</v>
       </c>
       <c r="E132" t="n">
-        <v>0.4066</v>
+        <v>0.4098</v>
       </c>
       <c r="F132" t="n">
-        <v>120778.6842</v>
+        <v>1440.6881</v>
       </c>
       <c r="G132" t="n">
-        <v>0.4068166666666667</v>
+        <v>0.4067916666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5332,10 +5322,10 @@
         <v>0.4066</v>
       </c>
       <c r="F133" t="n">
-        <v>8684.2827</v>
+        <v>120778.6842</v>
       </c>
       <c r="G133" t="n">
-        <v>0.4068466666666666</v>
+        <v>0.4068166666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5361,22 +5351,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4098</v>
+        <v>0.4066</v>
       </c>
       <c r="C134" t="n">
-        <v>0.4098</v>
+        <v>0.4066</v>
       </c>
       <c r="D134" t="n">
-        <v>0.4098</v>
+        <v>0.4066</v>
       </c>
       <c r="E134" t="n">
-        <v>0.4098</v>
+        <v>0.4066</v>
       </c>
       <c r="F134" t="n">
-        <v>48804.2948</v>
+        <v>8684.2827</v>
       </c>
       <c r="G134" t="n">
-        <v>0.4069583333333334</v>
+        <v>0.4068466666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5402,22 +5392,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4078</v>
+        <v>0.4098</v>
       </c>
       <c r="C135" t="n">
-        <v>0.4078</v>
+        <v>0.4098</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4078</v>
+        <v>0.4098</v>
       </c>
       <c r="E135" t="n">
-        <v>0.4078</v>
+        <v>0.4098</v>
       </c>
       <c r="F135" t="n">
-        <v>2207425.5264</v>
+        <v>48804.2948</v>
       </c>
       <c r="G135" t="n">
-        <v>0.4070066666666667</v>
+        <v>0.4069583333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5443,22 +5433,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.4066</v>
+        <v>0.4078</v>
       </c>
       <c r="C136" t="n">
-        <v>0.4066</v>
+        <v>0.4078</v>
       </c>
       <c r="D136" t="n">
-        <v>0.4066</v>
+        <v>0.4078</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4066</v>
+        <v>0.4078</v>
       </c>
       <c r="F136" t="n">
-        <v>195259.0991</v>
+        <v>2207425.5264</v>
       </c>
       <c r="G136" t="n">
-        <v>0.4070416666666667</v>
+        <v>0.4070066666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5484,22 +5474,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.4072</v>
+        <v>0.4066</v>
       </c>
       <c r="C137" t="n">
-        <v>0.4072</v>
+        <v>0.4066</v>
       </c>
       <c r="D137" t="n">
-        <v>0.4072</v>
+        <v>0.4066</v>
       </c>
       <c r="E137" t="n">
-        <v>0.4072</v>
+        <v>0.4066</v>
       </c>
       <c r="F137" t="n">
-        <v>130675.5887</v>
+        <v>195259.0991</v>
       </c>
       <c r="G137" t="n">
-        <v>0.4070866666666667</v>
+        <v>0.4070416666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5537,10 +5527,10 @@
         <v>0.4072</v>
       </c>
       <c r="F138" t="n">
-        <v>19699.4589</v>
+        <v>130675.5887</v>
       </c>
       <c r="G138" t="n">
-        <v>0.4071550000000001</v>
+        <v>0.4070866666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5578,18 +5568,20 @@
         <v>0.4072</v>
       </c>
       <c r="F139" t="n">
-        <v>2170.5469</v>
+        <v>19699.4589</v>
       </c>
       <c r="G139" t="n">
-        <v>0.4072250000000001</v>
+        <v>0.4071550000000001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0.4072</v>
+      </c>
       <c r="K139" t="n">
         <v>0.4013</v>
       </c>
@@ -5619,10 +5611,10 @@
         <v>0.4072</v>
       </c>
       <c r="F140" t="n">
-        <v>2903.8823</v>
+        <v>2170.5469</v>
       </c>
       <c r="G140" t="n">
-        <v>0.4073033333333334</v>
+        <v>0.4072250000000001</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5648,22 +5640,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.4097</v>
+        <v>0.4072</v>
       </c>
       <c r="C141" t="n">
-        <v>0.4097</v>
+        <v>0.4072</v>
       </c>
       <c r="D141" t="n">
-        <v>0.4097</v>
+        <v>0.4072</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4097</v>
+        <v>0.4072</v>
       </c>
       <c r="F141" t="n">
-        <v>7190.62728825</v>
+        <v>2903.8823</v>
       </c>
       <c r="G141" t="n">
-        <v>0.4074233333333334</v>
+        <v>0.4073033333333334</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5689,22 +5681,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.4072</v>
+        <v>0.4097</v>
       </c>
       <c r="C142" t="n">
-        <v>0.4072</v>
+        <v>0.4097</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4072</v>
+        <v>0.4097</v>
       </c>
       <c r="E142" t="n">
-        <v>0.4072</v>
+        <v>0.4097</v>
       </c>
       <c r="F142" t="n">
-        <v>786468.8364</v>
+        <v>7190.62728825</v>
       </c>
       <c r="G142" t="n">
-        <v>0.4075216666666668</v>
+        <v>0.4074233333333334</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5730,22 +5722,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4097</v>
+        <v>0.4072</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4097</v>
+        <v>0.4072</v>
       </c>
       <c r="D143" t="n">
-        <v>0.4097</v>
+        <v>0.4072</v>
       </c>
       <c r="E143" t="n">
-        <v>0.4097</v>
+        <v>0.4072</v>
       </c>
       <c r="F143" t="n">
-        <v>120000</v>
+        <v>786468.8364</v>
       </c>
       <c r="G143" t="n">
-        <v>0.4075933333333335</v>
+        <v>0.4075216666666668</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5771,22 +5763,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.4066</v>
+        <v>0.4097</v>
       </c>
       <c r="C144" t="n">
-        <v>0.4065</v>
+        <v>0.4097</v>
       </c>
       <c r="D144" t="n">
-        <v>0.4066</v>
+        <v>0.4097</v>
       </c>
       <c r="E144" t="n">
-        <v>0.4065</v>
+        <v>0.4097</v>
       </c>
       <c r="F144" t="n">
-        <v>5214202.9531</v>
+        <v>120000</v>
       </c>
       <c r="G144" t="n">
-        <v>0.4076800000000002</v>
+        <v>0.4075933333333335</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5812,22 +5804,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>0.4066</v>
+      </c>
+      <c r="C145" t="n">
         <v>0.4065</v>
       </c>
-      <c r="C145" t="n">
-        <v>0.4061</v>
-      </c>
       <c r="D145" t="n">
+        <v>0.4066</v>
+      </c>
+      <c r="E145" t="n">
         <v>0.4065</v>
       </c>
-      <c r="E145" t="n">
-        <v>0.4061</v>
-      </c>
       <c r="F145" t="n">
-        <v>1748856.6286</v>
+        <v>5214202.9531</v>
       </c>
       <c r="G145" t="n">
-        <v>0.4077483333333334</v>
+        <v>0.4076800000000002</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5853,22 +5845,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
+        <v>0.4065</v>
+      </c>
+      <c r="C146" t="n">
         <v>0.4061</v>
       </c>
-      <c r="C146" t="n">
-        <v>0.4057</v>
-      </c>
       <c r="D146" t="n">
+        <v>0.4065</v>
+      </c>
+      <c r="E146" t="n">
         <v>0.4061</v>
       </c>
-      <c r="E146" t="n">
-        <v>0.4057</v>
-      </c>
       <c r="F146" t="n">
-        <v>1773921.9112</v>
+        <v>1748856.6286</v>
       </c>
       <c r="G146" t="n">
-        <v>0.4077516666666668</v>
+        <v>0.4077483333333334</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5894,22 +5886,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.4057</v>
+        <v>0.4061</v>
       </c>
       <c r="C147" t="n">
         <v>0.4057</v>
       </c>
       <c r="D147" t="n">
-        <v>0.4057</v>
+        <v>0.4061</v>
       </c>
       <c r="E147" t="n">
         <v>0.4057</v>
       </c>
       <c r="F147" t="n">
-        <v>525343.2689</v>
+        <v>1773921.9112</v>
       </c>
       <c r="G147" t="n">
-        <v>0.4076883333333334</v>
+        <v>0.4077516666666668</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5947,10 +5939,10 @@
         <v>0.4057</v>
       </c>
       <c r="F148" t="n">
-        <v>428662.1846</v>
+        <v>525343.2689</v>
       </c>
       <c r="G148" t="n">
-        <v>0.4076266666666667</v>
+        <v>0.4076883333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5979,19 +5971,19 @@
         <v>0.4057</v>
       </c>
       <c r="C149" t="n">
-        <v>0.4045</v>
+        <v>0.4057</v>
       </c>
       <c r="D149" t="n">
         <v>0.4057</v>
       </c>
       <c r="E149" t="n">
-        <v>0.4045</v>
+        <v>0.4057</v>
       </c>
       <c r="F149" t="n">
-        <v>3699586.7775</v>
+        <v>428662.1846</v>
       </c>
       <c r="G149" t="n">
-        <v>0.407545</v>
+        <v>0.4076266666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6017,22 +6009,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.4047</v>
+        <v>0.4057</v>
       </c>
       <c r="C150" t="n">
-        <v>0.4047</v>
+        <v>0.4045</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4047</v>
+        <v>0.4057</v>
       </c>
       <c r="E150" t="n">
-        <v>0.4047</v>
+        <v>0.4045</v>
       </c>
       <c r="F150" t="n">
-        <v>1491.9233</v>
+        <v>3699586.7775</v>
       </c>
       <c r="G150" t="n">
-        <v>0.4075683333333333</v>
+        <v>0.407545</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6058,22 +6050,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.4097</v>
+        <v>0.4047</v>
       </c>
       <c r="C151" t="n">
-        <v>0.4097</v>
+        <v>0.4047</v>
       </c>
       <c r="D151" t="n">
-        <v>0.4097</v>
+        <v>0.4047</v>
       </c>
       <c r="E151" t="n">
-        <v>0.4097</v>
+        <v>0.4047</v>
       </c>
       <c r="F151" t="n">
-        <v>7954</v>
+        <v>1491.9233</v>
       </c>
       <c r="G151" t="n">
-        <v>0.4075816666666666</v>
+        <v>0.4075683333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6111,10 +6103,10 @@
         <v>0.4097</v>
       </c>
       <c r="F152" t="n">
-        <v>6972.829</v>
+        <v>7954</v>
       </c>
       <c r="G152" t="n">
-        <v>0.4076783333333333</v>
+        <v>0.4075816666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6140,22 +6132,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.4095</v>
+        <v>0.4097</v>
       </c>
       <c r="C153" t="n">
-        <v>0.4095</v>
+        <v>0.4097</v>
       </c>
       <c r="D153" t="n">
-        <v>0.4095</v>
+        <v>0.4097</v>
       </c>
       <c r="E153" t="n">
-        <v>0.4095</v>
+        <v>0.4097</v>
       </c>
       <c r="F153" t="n">
-        <v>87305.0828</v>
+        <v>6972.829</v>
       </c>
       <c r="G153" t="n">
-        <v>0.4077116666666667</v>
+        <v>0.4076783333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6181,22 +6173,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.4094</v>
+        <v>0.4095</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4094</v>
+        <v>0.4095</v>
       </c>
       <c r="D154" t="n">
-        <v>0.4094</v>
+        <v>0.4095</v>
       </c>
       <c r="E154" t="n">
-        <v>0.4094</v>
+        <v>0.4095</v>
       </c>
       <c r="F154" t="n">
-        <v>12328.948</v>
+        <v>87305.0828</v>
       </c>
       <c r="G154" t="n">
-        <v>0.4077683333333334</v>
+        <v>0.4077116666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6222,22 +6214,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.4051</v>
+        <v>0.4094</v>
       </c>
       <c r="C155" t="n">
-        <v>0.4051</v>
+        <v>0.4094</v>
       </c>
       <c r="D155" t="n">
-        <v>0.4051</v>
+        <v>0.4094</v>
       </c>
       <c r="E155" t="n">
-        <v>0.4051</v>
+        <v>0.4094</v>
       </c>
       <c r="F155" t="n">
-        <v>6978.1226</v>
+        <v>12328.948</v>
       </c>
       <c r="G155" t="n">
-        <v>0.4077550000000001</v>
+        <v>0.4077683333333334</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6275,10 +6267,10 @@
         <v>0.4051</v>
       </c>
       <c r="F156" t="n">
-        <v>3172.8283</v>
+        <v>6978.1226</v>
       </c>
       <c r="G156" t="n">
-        <v>0.4077700000000001</v>
+        <v>0.4077550000000001</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6304,22 +6296,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.4094</v>
+        <v>0.4051</v>
       </c>
       <c r="C157" t="n">
-        <v>0.4094</v>
+        <v>0.4051</v>
       </c>
       <c r="D157" t="n">
-        <v>0.4094</v>
+        <v>0.4051</v>
       </c>
       <c r="E157" t="n">
-        <v>0.4094</v>
+        <v>0.4051</v>
       </c>
       <c r="F157" t="n">
-        <v>3524.67024914</v>
+        <v>3172.8283</v>
       </c>
       <c r="G157" t="n">
-        <v>0.4078266666666668</v>
+        <v>0.4077700000000001</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6345,22 +6337,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.4052</v>
+        <v>0.4094</v>
       </c>
       <c r="C158" t="n">
-        <v>0.4052</v>
+        <v>0.4094</v>
       </c>
       <c r="D158" t="n">
-        <v>0.4052</v>
+        <v>0.4094</v>
       </c>
       <c r="E158" t="n">
-        <v>0.4052</v>
+        <v>0.4094</v>
       </c>
       <c r="F158" t="n">
-        <v>3524.6702</v>
+        <v>3524.67024914</v>
       </c>
       <c r="G158" t="n">
-        <v>0.4078400000000002</v>
+        <v>0.4078266666666668</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6389,19 +6381,19 @@
         <v>0.4052</v>
       </c>
       <c r="C159" t="n">
-        <v>0.4094</v>
+        <v>0.4052</v>
       </c>
       <c r="D159" t="n">
-        <v>0.4094</v>
+        <v>0.4052</v>
       </c>
       <c r="E159" t="n">
         <v>0.4052</v>
       </c>
       <c r="F159" t="n">
-        <v>2499</v>
+        <v>3524.6702</v>
       </c>
       <c r="G159" t="n">
-        <v>0.4078800000000002</v>
+        <v>0.4078400000000002</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6430,19 +6422,19 @@
         <v>0.4052</v>
       </c>
       <c r="C160" t="n">
-        <v>0.4052</v>
+        <v>0.4094</v>
       </c>
       <c r="D160" t="n">
-        <v>0.4052</v>
+        <v>0.4094</v>
       </c>
       <c r="E160" t="n">
         <v>0.4052</v>
       </c>
       <c r="F160" t="n">
-        <v>96402.8683</v>
+        <v>2499</v>
       </c>
       <c r="G160" t="n">
-        <v>0.4078500000000002</v>
+        <v>0.4078800000000002</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6480,10 +6472,10 @@
         <v>0.4052</v>
       </c>
       <c r="F161" t="n">
-        <v>103597.1317</v>
+        <v>96402.8683</v>
       </c>
       <c r="G161" t="n">
-        <v>0.4078200000000002</v>
+        <v>0.4078500000000002</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6509,22 +6501,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.4094</v>
+        <v>0.4052</v>
       </c>
       <c r="C162" t="n">
-        <v>0.4094</v>
+        <v>0.4052</v>
       </c>
       <c r="D162" t="n">
-        <v>0.4094</v>
+        <v>0.4052</v>
       </c>
       <c r="E162" t="n">
-        <v>0.4094</v>
+        <v>0.4052</v>
       </c>
       <c r="F162" t="n">
-        <v>17029.79970688</v>
+        <v>103597.1317</v>
       </c>
       <c r="G162" t="n">
-        <v>0.4078600000000003</v>
+        <v>0.4078200000000002</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6550,22 +6542,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.4048</v>
+        <v>0.4094</v>
       </c>
       <c r="C163" t="n">
-        <v>0.4048</v>
+        <v>0.4094</v>
       </c>
       <c r="D163" t="n">
-        <v>0.4048</v>
+        <v>0.4094</v>
       </c>
       <c r="E163" t="n">
-        <v>0.4048</v>
+        <v>0.4094</v>
       </c>
       <c r="F163" t="n">
-        <v>350000</v>
+        <v>17029.79970688</v>
       </c>
       <c r="G163" t="n">
-        <v>0.407821666666667</v>
+        <v>0.4078600000000003</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6591,22 +6583,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.4047</v>
+        <v>0.4048</v>
       </c>
       <c r="C164" t="n">
-        <v>0.4047</v>
+        <v>0.4048</v>
       </c>
       <c r="D164" t="n">
-        <v>0.4047</v>
+        <v>0.4048</v>
       </c>
       <c r="E164" t="n">
-        <v>0.4047</v>
+        <v>0.4048</v>
       </c>
       <c r="F164" t="n">
-        <v>1538.7728</v>
+        <v>350000</v>
       </c>
       <c r="G164" t="n">
-        <v>0.4077816666666669</v>
+        <v>0.407821666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6632,22 +6624,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.4048</v>
+        <v>0.4047</v>
       </c>
       <c r="C165" t="n">
         <v>0.4047</v>
       </c>
       <c r="D165" t="n">
-        <v>0.4048</v>
+        <v>0.4047</v>
       </c>
       <c r="E165" t="n">
         <v>0.4047</v>
       </c>
       <c r="F165" t="n">
-        <v>39600</v>
+        <v>1538.7728</v>
       </c>
       <c r="G165" t="n">
-        <v>0.4077650000000003</v>
+        <v>0.4077816666666669</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6673,22 +6665,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.4049</v>
+        <v>0.4048</v>
       </c>
       <c r="C166" t="n">
-        <v>0.4049</v>
+        <v>0.4047</v>
       </c>
       <c r="D166" t="n">
-        <v>0.4049</v>
+        <v>0.4048</v>
       </c>
       <c r="E166" t="n">
-        <v>0.4049</v>
+        <v>0.4047</v>
       </c>
       <c r="F166" t="n">
-        <v>10000</v>
+        <v>39600</v>
       </c>
       <c r="G166" t="n">
-        <v>0.4076983333333336</v>
+        <v>0.4077650000000003</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6714,22 +6706,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.4093</v>
+        <v>0.4049</v>
       </c>
       <c r="C167" t="n">
-        <v>0.4093</v>
+        <v>0.4049</v>
       </c>
       <c r="D167" t="n">
-        <v>0.4093</v>
+        <v>0.4049</v>
       </c>
       <c r="E167" t="n">
-        <v>0.4093</v>
+        <v>0.4049</v>
       </c>
       <c r="F167" t="n">
-        <v>303098.0818</v>
+        <v>10000</v>
       </c>
       <c r="G167" t="n">
-        <v>0.4077050000000003</v>
+        <v>0.4076983333333336</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6767,10 +6759,10 @@
         <v>0.4093</v>
       </c>
       <c r="F168" t="n">
-        <v>18783.5078</v>
+        <v>303098.0818</v>
       </c>
       <c r="G168" t="n">
-        <v>0.4077033333333336</v>
+        <v>0.4077050000000003</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6796,22 +6788,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.4054</v>
+        <v>0.4093</v>
       </c>
       <c r="C169" t="n">
-        <v>0.4054</v>
+        <v>0.4093</v>
       </c>
       <c r="D169" t="n">
-        <v>0.4054</v>
+        <v>0.4093</v>
       </c>
       <c r="E169" t="n">
-        <v>0.4054</v>
+        <v>0.4093</v>
       </c>
       <c r="F169" t="n">
-        <v>150000</v>
+        <v>18783.5078</v>
       </c>
       <c r="G169" t="n">
-        <v>0.4076266666666669</v>
+        <v>0.4077033333333336</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6837,22 +6829,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.4086</v>
+        <v>0.4054</v>
       </c>
       <c r="C170" t="n">
-        <v>0.4086</v>
+        <v>0.4054</v>
       </c>
       <c r="D170" t="n">
-        <v>0.4086</v>
+        <v>0.4054</v>
       </c>
       <c r="E170" t="n">
-        <v>0.4086</v>
+        <v>0.4054</v>
       </c>
       <c r="F170" t="n">
-        <v>915477.7642</v>
+        <v>150000</v>
       </c>
       <c r="G170" t="n">
-        <v>0.4076033333333335</v>
+        <v>0.4076266666666669</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6878,22 +6870,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.4053</v>
+        <v>0.4086</v>
       </c>
       <c r="C171" t="n">
-        <v>0.4053</v>
+        <v>0.4086</v>
       </c>
       <c r="D171" t="n">
-        <v>0.4053</v>
+        <v>0.4086</v>
       </c>
       <c r="E171" t="n">
-        <v>0.4053</v>
+        <v>0.4086</v>
       </c>
       <c r="F171" t="n">
-        <v>1304055.8792</v>
+        <v>915477.7642</v>
       </c>
       <c r="G171" t="n">
-        <v>0.4075250000000002</v>
+        <v>0.4076033333333335</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6931,10 +6923,10 @@
         <v>0.4053</v>
       </c>
       <c r="F172" t="n">
-        <v>14979.4386</v>
+        <v>1304055.8792</v>
       </c>
       <c r="G172" t="n">
-        <v>0.4075116666666669</v>
+        <v>0.4075250000000002</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6960,22 +6952,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.4084</v>
+        <v>0.4053</v>
       </c>
       <c r="C173" t="n">
-        <v>0.4084</v>
+        <v>0.4053</v>
       </c>
       <c r="D173" t="n">
-        <v>0.4084</v>
+        <v>0.4053</v>
       </c>
       <c r="E173" t="n">
-        <v>0.4084</v>
+        <v>0.4053</v>
       </c>
       <c r="F173" t="n">
-        <v>5142.01762977</v>
+        <v>14979.4386</v>
       </c>
       <c r="G173" t="n">
-        <v>0.4074850000000003</v>
+        <v>0.4075116666666669</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7001,22 +6993,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.4083</v>
+        <v>0.4084</v>
       </c>
       <c r="C174" t="n">
-        <v>0.4083</v>
+        <v>0.4084</v>
       </c>
       <c r="D174" t="n">
-        <v>0.4083</v>
+        <v>0.4084</v>
       </c>
       <c r="E174" t="n">
-        <v>0.4083</v>
+        <v>0.4084</v>
       </c>
       <c r="F174" t="n">
-        <v>732921.5535</v>
+        <v>5142.01762977</v>
       </c>
       <c r="G174" t="n">
-        <v>0.4074566666666669</v>
+        <v>0.4074850000000003</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7054,10 +7046,10 @@
         <v>0.4083</v>
       </c>
       <c r="F175" t="n">
-        <v>4881.2147</v>
+        <v>732921.5535</v>
       </c>
       <c r="G175" t="n">
-        <v>0.4074283333333336</v>
+        <v>0.4074566666666669</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7083,22 +7075,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.408</v>
+        <v>0.4083</v>
       </c>
       <c r="C176" t="n">
-        <v>0.408</v>
+        <v>0.4083</v>
       </c>
       <c r="D176" t="n">
-        <v>0.408</v>
+        <v>0.4083</v>
       </c>
       <c r="E176" t="n">
-        <v>0.408</v>
+        <v>0.4083</v>
       </c>
       <c r="F176" t="n">
-        <v>48894.9195</v>
+        <v>4881.2147</v>
       </c>
       <c r="G176" t="n">
-        <v>0.4073950000000003</v>
+        <v>0.4074283333333336</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7136,10 +7128,10 @@
         <v>0.408</v>
       </c>
       <c r="F177" t="n">
-        <v>382009.2049</v>
+        <v>48894.9195</v>
       </c>
       <c r="G177" t="n">
-        <v>0.407361666666667</v>
+        <v>0.4073950000000003</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7177,10 +7169,10 @@
         <v>0.408</v>
       </c>
       <c r="F178" t="n">
-        <v>5545086.3527</v>
+        <v>382009.2049</v>
       </c>
       <c r="G178" t="n">
-        <v>0.4073283333333337</v>
+        <v>0.407361666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7206,22 +7198,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.4055</v>
+        <v>0.408</v>
       </c>
       <c r="C179" t="n">
-        <v>0.4055</v>
+        <v>0.408</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4055</v>
+        <v>0.408</v>
       </c>
       <c r="E179" t="n">
-        <v>0.4055</v>
+        <v>0.408</v>
       </c>
       <c r="F179" t="n">
-        <v>6313.6946</v>
+        <v>5545086.3527</v>
       </c>
       <c r="G179" t="n">
-        <v>0.4073183333333337</v>
+        <v>0.4073283333333337</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7247,22 +7239,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4079</v>
+        <v>0.4055</v>
       </c>
       <c r="C180" t="n">
-        <v>0.4079</v>
+        <v>0.4055</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4079</v>
+        <v>0.4055</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4079</v>
+        <v>0.4055</v>
       </c>
       <c r="F180" t="n">
-        <v>76168.03200000001</v>
+        <v>6313.6946</v>
       </c>
       <c r="G180" t="n">
-        <v>0.407286666666667</v>
+        <v>0.4073183333333337</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7300,10 +7292,10 @@
         <v>0.4079</v>
       </c>
       <c r="F181" t="n">
-        <v>86820.5318</v>
+        <v>76168.03200000001</v>
       </c>
       <c r="G181" t="n">
-        <v>0.4072550000000004</v>
+        <v>0.407286666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7332,19 +7324,19 @@
         <v>0.4079</v>
       </c>
       <c r="C182" t="n">
-        <v>0.408</v>
+        <v>0.4079</v>
       </c>
       <c r="D182" t="n">
-        <v>0.408</v>
+        <v>0.4079</v>
       </c>
       <c r="E182" t="n">
         <v>0.4079</v>
       </c>
       <c r="F182" t="n">
-        <v>8934.2701</v>
+        <v>86820.5318</v>
       </c>
       <c r="G182" t="n">
-        <v>0.4072250000000004</v>
+        <v>0.4072550000000004</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7370,7 +7362,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.408</v>
+        <v>0.4079</v>
       </c>
       <c r="C183" t="n">
         <v>0.408</v>
@@ -7379,13 +7371,13 @@
         <v>0.408</v>
       </c>
       <c r="E183" t="n">
-        <v>0.408</v>
+        <v>0.4079</v>
       </c>
       <c r="F183" t="n">
-        <v>259452.0189</v>
+        <v>8934.2701</v>
       </c>
       <c r="G183" t="n">
-        <v>0.4072500000000004</v>
+        <v>0.4072250000000004</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7423,10 +7415,10 @@
         <v>0.408</v>
       </c>
       <c r="F184" t="n">
-        <v>519776.368</v>
+        <v>259452.0189</v>
       </c>
       <c r="G184" t="n">
-        <v>0.4072733333333337</v>
+        <v>0.4072500000000004</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7452,22 +7444,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.4083</v>
+        <v>0.408</v>
       </c>
       <c r="C185" t="n">
-        <v>0.4083</v>
+        <v>0.408</v>
       </c>
       <c r="D185" t="n">
-        <v>0.4083</v>
+        <v>0.408</v>
       </c>
       <c r="E185" t="n">
-        <v>0.4083</v>
+        <v>0.408</v>
       </c>
       <c r="F185" t="n">
-        <v>3336435.3505</v>
+        <v>519776.368</v>
       </c>
       <c r="G185" t="n">
-        <v>0.4073016666666671</v>
+        <v>0.4072733333333337</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7493,22 +7485,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.4061</v>
+        <v>0.4083</v>
       </c>
       <c r="C186" t="n">
-        <v>0.4061</v>
+        <v>0.4083</v>
       </c>
       <c r="D186" t="n">
-        <v>0.4061</v>
+        <v>0.4083</v>
       </c>
       <c r="E186" t="n">
-        <v>0.4061</v>
+        <v>0.4083</v>
       </c>
       <c r="F186" t="n">
-        <v>533444.694</v>
+        <v>3336435.3505</v>
       </c>
       <c r="G186" t="n">
-        <v>0.4072400000000004</v>
+        <v>0.4073016666666671</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7546,10 +7538,10 @@
         <v>0.4061</v>
       </c>
       <c r="F187" t="n">
-        <v>1803.7152</v>
+        <v>533444.694</v>
       </c>
       <c r="G187" t="n">
-        <v>0.407231666666667</v>
+        <v>0.4072400000000004</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7575,22 +7567,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.406</v>
+        <v>0.4061</v>
       </c>
       <c r="C188" t="n">
-        <v>0.406</v>
+        <v>0.4061</v>
       </c>
       <c r="D188" t="n">
-        <v>0.406</v>
+        <v>0.4061</v>
       </c>
       <c r="E188" t="n">
-        <v>0.406</v>
+        <v>0.4061</v>
       </c>
       <c r="F188" t="n">
-        <v>2623693.4511</v>
+        <v>1803.7152</v>
       </c>
       <c r="G188" t="n">
-        <v>0.4072216666666669</v>
+        <v>0.407231666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7616,22 +7608,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.4058</v>
+        <v>0.406</v>
       </c>
       <c r="C189" t="n">
-        <v>0.4058</v>
+        <v>0.406</v>
       </c>
       <c r="D189" t="n">
-        <v>0.4058</v>
+        <v>0.406</v>
       </c>
       <c r="E189" t="n">
-        <v>0.4058</v>
+        <v>0.406</v>
       </c>
       <c r="F189" t="n">
-        <v>65641.4215</v>
+        <v>2623693.4511</v>
       </c>
       <c r="G189" t="n">
-        <v>0.4071550000000003</v>
+        <v>0.4072216666666669</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7669,10 +7661,10 @@
         <v>0.4058</v>
       </c>
       <c r="F190" t="n">
-        <v>106184.3357</v>
+        <v>65641.4215</v>
       </c>
       <c r="G190" t="n">
-        <v>0.4071416666666669</v>
+        <v>0.4071550000000003</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7698,22 +7690,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.4091</v>
+        <v>0.4058</v>
       </c>
       <c r="C191" t="n">
         <v>0.4058</v>
       </c>
       <c r="D191" t="n">
-        <v>0.4091</v>
+        <v>0.4058</v>
       </c>
       <c r="E191" t="n">
         <v>0.4058</v>
       </c>
       <c r="F191" t="n">
-        <v>110114.6442</v>
+        <v>106184.3357</v>
       </c>
       <c r="G191" t="n">
-        <v>0.4070750000000002</v>
+        <v>0.4071416666666669</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7739,22 +7731,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.4058</v>
+        <v>0.4091</v>
       </c>
       <c r="C192" t="n">
         <v>0.4058</v>
       </c>
       <c r="D192" t="n">
-        <v>0.4058</v>
+        <v>0.4091</v>
       </c>
       <c r="E192" t="n">
         <v>0.4058</v>
       </c>
       <c r="F192" t="n">
-        <v>2006.4182</v>
+        <v>110114.6442</v>
       </c>
       <c r="G192" t="n">
-        <v>0.4070616666666668</v>
+        <v>0.4070750000000002</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7780,22 +7772,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.4054</v>
+        <v>0.4058</v>
       </c>
       <c r="C193" t="n">
-        <v>0.4054</v>
+        <v>0.4058</v>
       </c>
       <c r="D193" t="n">
-        <v>0.4054</v>
+        <v>0.4058</v>
       </c>
       <c r="E193" t="n">
-        <v>0.4054</v>
+        <v>0.4058</v>
       </c>
       <c r="F193" t="n">
-        <v>10299.5594</v>
+        <v>2006.4182</v>
       </c>
       <c r="G193" t="n">
-        <v>0.4070416666666669</v>
+        <v>0.4070616666666668</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7821,22 +7813,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.4046</v>
+        <v>0.4054</v>
       </c>
       <c r="C194" t="n">
-        <v>0.4046</v>
+        <v>0.4054</v>
       </c>
       <c r="D194" t="n">
-        <v>0.4046</v>
+        <v>0.4054</v>
       </c>
       <c r="E194" t="n">
-        <v>0.4046</v>
+        <v>0.4054</v>
       </c>
       <c r="F194" t="n">
-        <v>11015769.3015</v>
+        <v>10299.5594</v>
       </c>
       <c r="G194" t="n">
-        <v>0.4069550000000001</v>
+        <v>0.4070416666666669</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7874,10 +7866,10 @@
         <v>0.4046</v>
       </c>
       <c r="F195" t="n">
-        <v>737508.6649</v>
+        <v>11015769.3015</v>
       </c>
       <c r="G195" t="n">
-        <v>0.4069016666666668</v>
+        <v>0.4069550000000001</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7895,6 +7887,47 @@
         </is>
       </c>
       <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.4046</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.4046</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.4046</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.4046</v>
+      </c>
+      <c r="F196" t="n">
+        <v>737508.6649</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.4069016666666668</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>0.4013</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest BTT.xlsx
+++ b/BackTest/2020-01-21 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M196"/>
+  <dimension ref="A1:N206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>9000000</v>
       </c>
       <c r="G2" t="n">
+        <v>0.4050066666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.4043316666666666</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1404329.9507</v>
       </c>
       <c r="G3" t="n">
+        <v>0.4049866666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.4043633333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1402757.4866</v>
       </c>
       <c r="G4" t="n">
+        <v>0.4054533333333332</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.4044583333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1274.2488</v>
       </c>
       <c r="G5" t="n">
+        <v>0.4057799999999999</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.404585</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>2526284.1403</v>
       </c>
       <c r="G6" t="n">
+        <v>0.4061199999999999</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.4047016666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>1363664.38366164</v>
       </c>
       <c r="G7" t="n">
+        <v>0.40648</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.40484</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>3732.1955</v>
       </c>
       <c r="G8" t="n">
+        <v>0.4068199999999999</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.4049583333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>514873.0215</v>
       </c>
       <c r="G9" t="n">
+        <v>0.4073799999999999</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.4051383333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>11226947.9277</v>
       </c>
       <c r="G10" t="n">
+        <v>0.4074333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.4052166666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>29897.0017</v>
       </c>
       <c r="G11" t="n">
+        <v>0.4080399999999999</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.4054116666666666</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>493354</v>
       </c>
       <c r="G12" t="n">
+        <v>0.4084733333333332</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.4055399999999999</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>3000000</v>
       </c>
       <c r="G13" t="n">
+        <v>0.4088999999999999</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.4056399999999999</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>10000</v>
       </c>
       <c r="G14" t="n">
+        <v>0.4090599999999999</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.4056816666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>3103202.6898</v>
       </c>
       <c r="G15" t="n">
+        <v>0.4092399999999999</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.4057266666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>1571</v>
       </c>
       <c r="G16" t="n">
+        <v>0.4094666666666666</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.4057816666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>21722.9619</v>
       </c>
       <c r="G17" t="n">
+        <v>0.4097266666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.4058533333333332</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>79340.102</v>
       </c>
       <c r="G18" t="n">
+        <v>0.4103599999999999</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.4059499999999999</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>104552.3551</v>
       </c>
       <c r="G19" t="n">
+        <v>0.4107133333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.4061049999999999</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>3000000</v>
       </c>
       <c r="G20" t="n">
+        <v>0.4109666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.4062399999999998</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>890383.42</v>
       </c>
       <c r="G21" t="n">
+        <v>0.41124</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.4063349999999998</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>1258520.556</v>
       </c>
       <c r="G22" t="n">
+        <v>0.4115799999999999</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.4064383333333332</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>15660290.5073</v>
       </c>
       <c r="G23" t="n">
+        <v>0.4117466666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.4065</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>1440</v>
       </c>
       <c r="G24" t="n">
+        <v>0.4116333333333332</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.406555</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>3560702.0965</v>
       </c>
       <c r="G25" t="n">
+        <v>0.4120199999999999</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.4066666666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>16218901.449</v>
       </c>
       <c r="G26" t="n">
+        <v>0.4118533333333332</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.40679</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>2427022.1162</v>
       </c>
       <c r="G27" t="n">
+        <v>0.4118599999999998</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.4069616666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>2057421</v>
       </c>
       <c r="G28" t="n">
+        <v>0.4119066666666665</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.4071116666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>313671.0398445</v>
       </c>
       <c r="G29" t="n">
+        <v>0.4119533333333332</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.4072933333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>10611.8786</v>
       </c>
       <c r="G30" t="n">
+        <v>0.4116999999999998</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.4073766666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>2678.5031</v>
       </c>
       <c r="G31" t="n">
+        <v>0.4116066666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.4074666666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>1368655.5791</v>
       </c>
       <c r="G32" t="n">
+        <v>0.4113733333333332</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.4075916666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>472616.2062</v>
       </c>
       <c r="G33" t="n">
+        <v>0.4110266666666665</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.4076483333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>9020852.880999999</v>
       </c>
       <c r="G34" t="n">
+        <v>0.4107533333333331</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.4076966666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>812609.2046000001</v>
       </c>
       <c r="G35" t="n">
+        <v>0.4105533333333332</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.4077433333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>1226.1629</v>
       </c>
       <c r="G36" t="n">
+        <v>0.4106066666666665</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.4078933333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>5912562.6625</v>
       </c>
       <c r="G37" t="n">
+        <v>0.4105666666666664</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.4080966666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>14722.5451</v>
       </c>
       <c r="G38" t="n">
+        <v>0.410693333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.4082466666666666</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>1500</v>
       </c>
       <c r="G39" t="n">
+        <v>0.410853333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.4083966666666666</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>583394.743</v>
       </c>
       <c r="G40" t="n">
+        <v>0.4105866666666664</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.4084416666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>3669.0682</v>
       </c>
       <c r="G41" t="n">
+        <v>0.4107333333333331</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.4085883333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>1416.1637</v>
       </c>
       <c r="G42" t="n">
+        <v>0.4107133333333331</v>
+      </c>
+      <c r="H42" t="n">
         <v>0.4086933333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>182236.1796</v>
       </c>
       <c r="G43" t="n">
+        <v>0.4106533333333331</v>
+      </c>
+      <c r="H43" t="n">
         <v>0.4088</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>203876.8993</v>
       </c>
       <c r="G44" t="n">
+        <v>0.4105599999999998</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.4088983333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>116617.5614</v>
       </c>
       <c r="G45" t="n">
+        <v>0.4106066666666665</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.40896</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>16430105.3698</v>
       </c>
       <c r="G46" t="n">
+        <v>0.4103866666666665</v>
+      </c>
+      <c r="H46" t="n">
         <v>0.4090516666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>5000</v>
       </c>
       <c r="G47" t="n">
+        <v>0.4104866666666664</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.4091483333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>177692.6332</v>
       </c>
       <c r="G48" t="n">
+        <v>0.4103999999999998</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.4091933333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>2500.1356</v>
       </c>
       <c r="G49" t="n">
+        <v>0.4102399999999998</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.4092900000000001</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>1455430.0949</v>
       </c>
       <c r="G50" t="n">
+        <v>0.4102999999999998</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.4094</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>5299244.2595</v>
       </c>
       <c r="G51" t="n">
+        <v>0.4100866666666664</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.4095133333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>2791516.2139</v>
       </c>
       <c r="G52" t="n">
+        <v>0.4098666666666664</v>
+      </c>
+      <c r="H52" t="n">
         <v>0.4096233333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>20020.0201</v>
       </c>
       <c r="G53" t="n">
+        <v>0.4096466666666664</v>
+      </c>
+      <c r="H53" t="n">
         <v>0.4097266666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>128943.4949</v>
       </c>
       <c r="G54" t="n">
+        <v>0.4094266666666665</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.4098233333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>8606.895699999999</v>
       </c>
       <c r="G55" t="n">
+        <v>0.4093199999999999</v>
+      </c>
+      <c r="H55" t="n">
         <v>0.40984</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>7384.4659</v>
       </c>
       <c r="G56" t="n">
+        <v>0.4088066666666665</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.4098583333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>3363.8547</v>
       </c>
       <c r="G57" t="n">
+        <v>0.4086599999999999</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.4099266666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>4445265.6678</v>
       </c>
       <c r="G58" t="n">
+        <v>0.4084666666666665</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.4099816666666668</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>190426.5453</v>
       </c>
       <c r="G59" t="n">
+        <v>0.4083066666666665</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.4099700000000002</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>3157676.8194</v>
       </c>
       <c r="G60" t="n">
+        <v>0.4082933333333331</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.4099600000000002</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>11886771.5993</v>
       </c>
       <c r="G61" t="n">
+        <v>0.4081799999999998</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.4099100000000002</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>22874.5184</v>
       </c>
       <c r="G62" t="n">
+        <v>0.4078933333333331</v>
+      </c>
+      <c r="H62" t="n">
         <v>0.4098700000000001</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>1500</v>
       </c>
       <c r="G63" t="n">
+        <v>0.4078599999999998</v>
+      </c>
+      <c r="H63" t="n">
         <v>0.4099116666666668</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>22874.5184</v>
       </c>
       <c r="G64" t="n">
+        <v>0.4077999999999998</v>
+      </c>
+      <c r="H64" t="n">
         <v>0.4098766666666668</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>247500000</v>
       </c>
       <c r="G65" t="n">
+        <v>0.4075333333333332</v>
+      </c>
+      <c r="H65" t="n">
         <v>0.4098383333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>1705000000</v>
       </c>
       <c r="G66" t="n">
+        <v>0.4072666666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>0.4098000000000001</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>1543391.7533</v>
       </c>
       <c r="G67" t="n">
+        <v>0.4071399999999999</v>
+      </c>
+      <c r="H67" t="n">
         <v>0.4097883333333334</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>7250.0855</v>
       </c>
       <c r="G68" t="n">
+        <v>0.4070066666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.4097733333333335</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>36664.037</v>
       </c>
       <c r="G69" t="n">
+        <v>0.4068599999999999</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.4096933333333335</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>3060.7755</v>
       </c>
       <c r="G70" t="n">
+        <v>0.4068133333333332</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.4096850000000001</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>50000.767</v>
       </c>
       <c r="G71" t="n">
+        <v>0.4067866666666665</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.4095450000000002</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>1243.5216</v>
       </c>
       <c r="G72" t="n">
+        <v>0.4065599999999999</v>
+      </c>
+      <c r="H72" t="n">
         <v>0.4094483333333335</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>54547.5085</v>
       </c>
       <c r="G73" t="n">
+        <v>0.4063799999999999</v>
+      </c>
+      <c r="H73" t="n">
         <v>0.4093516666666668</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>11729.6625</v>
       </c>
       <c r="G74" t="n">
+        <v>0.4061799999999999</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.4092500000000001</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>3244711.1336</v>
       </c>
       <c r="G75" t="n">
+        <v>0.4058666666666665</v>
+      </c>
+      <c r="H75" t="n">
         <v>0.4091166666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>3000000</v>
       </c>
       <c r="G76" t="n">
+        <v>0.4058399999999999</v>
+      </c>
+      <c r="H76" t="n">
         <v>0.4090033333333334</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>443884.1339</v>
       </c>
       <c r="G77" t="n">
+        <v>0.4057466666666665</v>
+      </c>
+      <c r="H77" t="n">
         <v>0.4088750000000001</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>1381934.8835</v>
       </c>
       <c r="G78" t="n">
+        <v>0.4056133333333332</v>
+      </c>
+      <c r="H78" t="n">
         <v>0.4087250000000001</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>0.0001</v>
       </c>
       <c r="G79" t="n">
+        <v>0.4054133333333331</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.4085516666666668</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>37200</v>
       </c>
       <c r="G80" t="n">
+        <v>0.4051999999999998</v>
+      </c>
+      <c r="H80" t="n">
         <v>0.4083966666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>7496581.3092</v>
       </c>
       <c r="G81" t="n">
+        <v>0.4049533333333332</v>
+      </c>
+      <c r="H81" t="n">
         <v>0.4082283333333334</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>3965289.5182</v>
       </c>
       <c r="G82" t="n">
+        <v>0.4045799999999998</v>
+      </c>
+      <c r="H82" t="n">
         <v>0.4080383333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>19996576.7997</v>
       </c>
       <c r="G83" t="n">
+        <v>0.4041333333333331</v>
+      </c>
+      <c r="H83" t="n">
         <v>0.40787</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,22 +3569,21 @@
         <v>2737066.0915</v>
       </c>
       <c r="G84" t="n">
+        <v>0.4039733333333331</v>
+      </c>
+      <c r="H84" t="n">
         <v>0.4077783333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.4013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3357,24 +3607,21 @@
         <v>6517.665</v>
       </c>
       <c r="G85" t="n">
+        <v>0.4037466666666665</v>
+      </c>
+      <c r="H85" t="n">
         <v>0.4076166666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3398,24 +3645,21 @@
         <v>5874.7271</v>
       </c>
       <c r="G86" t="n">
+        <v>0.4035399999999998</v>
+      </c>
+      <c r="H86" t="n">
         <v>0.4074666666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,24 +3683,21 @@
         <v>1328.1321</v>
       </c>
       <c r="G87" t="n">
+        <v>0.4035666666666665</v>
+      </c>
+      <c r="H87" t="n">
         <v>0.4073749999999999</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3480,24 +3721,21 @@
         <v>3697864.74919853</v>
       </c>
       <c r="G88" t="n">
+        <v>0.4038599999999998</v>
+      </c>
+      <c r="H88" t="n">
         <v>0.4073399999999999</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3521,24 +3759,21 @@
         <v>153954.357</v>
       </c>
       <c r="G89" t="n">
+        <v>0.4041666666666665</v>
+      </c>
+      <c r="H89" t="n">
         <v>0.4073033333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,24 +3797,21 @@
         <v>92909.2997</v>
       </c>
       <c r="G90" t="n">
+        <v>0.4045866666666665</v>
+      </c>
+      <c r="H90" t="n">
         <v>0.4073383333333334</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3603,24 +3835,21 @@
         <v>914964.1522</v>
       </c>
       <c r="G91" t="n">
+        <v>0.4044799999999998</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.4072216666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3644,24 +3873,21 @@
         <v>1260.428</v>
       </c>
       <c r="G92" t="n">
+        <v>0.4047733333333332</v>
+      </c>
+      <c r="H92" t="n">
         <v>0.4072250000000001</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3685,24 +3911,21 @@
         <v>12707.7548</v>
       </c>
       <c r="G93" t="n">
+        <v>0.4047333333333332</v>
+      </c>
+      <c r="H93" t="n">
         <v>0.4071516666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3726,24 +3949,21 @@
         <v>121998.4125</v>
       </c>
       <c r="G94" t="n">
+        <v>0.4050266666666665</v>
+      </c>
+      <c r="H94" t="n">
         <v>0.40712</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3767,24 +3987,21 @@
         <v>7142.85714285</v>
       </c>
       <c r="G95" t="n">
+        <v>0.4052266666666665</v>
+      </c>
+      <c r="H95" t="n">
         <v>0.407065</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,24 +4025,21 @@
         <v>501337.111</v>
       </c>
       <c r="G96" t="n">
+        <v>0.4054533333333331</v>
+      </c>
+      <c r="H96" t="n">
         <v>0.4069399999999999</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3849,24 +4063,21 @@
         <v>6505.4346</v>
       </c>
       <c r="G97" t="n">
+        <v>0.4055666666666665</v>
+      </c>
+      <c r="H97" t="n">
         <v>0.4067883333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3890,24 +4101,21 @@
         <v>3682.26600985</v>
       </c>
       <c r="G98" t="n">
+        <v>0.4058799999999998</v>
+      </c>
+      <c r="H98" t="n">
         <v>0.4066666666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,24 +4139,25 @@
         <v>14091.2718</v>
       </c>
       <c r="G99" t="n">
+        <v>0.4058133333333331</v>
+      </c>
+      <c r="H99" t="n">
         <v>0.4065183333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,24 +4181,29 @@
         <v>2690400.3617</v>
       </c>
       <c r="G100" t="n">
+        <v>0.4061933333333331</v>
+      </c>
+      <c r="H100" t="n">
         <v>0.4065183333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4013,24 +4227,29 @@
         <v>400634.1548</v>
       </c>
       <c r="G101" t="n">
+        <v>0.4065266666666664</v>
+      </c>
+      <c r="H101" t="n">
         <v>0.4064149999999999</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4054,24 +4273,27 @@
         <v>206887.2308</v>
       </c>
       <c r="G102" t="n">
+        <v>0.4066266666666664</v>
+      </c>
+      <c r="H102" t="n">
         <v>0.4063533333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4095,24 +4317,27 @@
         <v>1144068.2204</v>
       </c>
       <c r="G103" t="n">
+        <v>0.4064599999999998</v>
+      </c>
+      <c r="H103" t="n">
         <v>0.4062916666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4136,24 +4361,27 @@
         <v>1430436.71099015</v>
       </c>
       <c r="G104" t="n">
+        <v>0.4063066666666664</v>
+      </c>
+      <c r="H104" t="n">
         <v>0.40624</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4177,24 +4405,27 @@
         <v>2376760.3378</v>
       </c>
       <c r="G105" t="n">
+        <v>0.4061533333333331</v>
+      </c>
+      <c r="H105" t="n">
         <v>0.4062249999999999</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4218,24 +4449,27 @@
         <v>336456.7919</v>
       </c>
       <c r="G106" t="n">
+        <v>0.4063133333333331</v>
+      </c>
+      <c r="H106" t="n">
         <v>0.4062033333333332</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4259,24 +4493,27 @@
         <v>17988.3136</v>
       </c>
       <c r="G107" t="n">
+        <v>0.4063133333333331</v>
+      </c>
+      <c r="H107" t="n">
         <v>0.4061816666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4300,24 +4537,27 @@
         <v>1367.0641</v>
       </c>
       <c r="G108" t="n">
+        <v>0.4066466666666664</v>
+      </c>
+      <c r="H108" t="n">
         <v>0.4062133333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4341,24 +4581,27 @@
         <v>2600</v>
       </c>
       <c r="G109" t="n">
+        <v>0.4067733333333331</v>
+      </c>
+      <c r="H109" t="n">
         <v>0.4062533333333332</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4382,24 +4625,27 @@
         <v>1216472.1853</v>
       </c>
       <c r="G110" t="n">
+        <v>0.4070399999999998</v>
+      </c>
+      <c r="H110" t="n">
         <v>0.4062499999999999</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,24 +4669,27 @@
         <v>2488.8004</v>
       </c>
       <c r="G111" t="n">
+        <v>0.4073133333333331</v>
+      </c>
+      <c r="H111" t="n">
         <v>0.4062466666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4464,24 +4713,27 @@
         <v>2327011.5974</v>
       </c>
       <c r="G112" t="n">
+        <v>0.4076999999999998</v>
+      </c>
+      <c r="H112" t="n">
         <v>0.4062466666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4505,24 +4757,27 @@
         <v>2066756.744</v>
       </c>
       <c r="G113" t="n">
+        <v>0.4077066666666666</v>
+      </c>
+      <c r="H113" t="n">
         <v>0.4061816666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4546,24 +4801,27 @@
         <v>20373.8458</v>
       </c>
       <c r="G114" t="n">
+        <v>0.4080799999999999</v>
+      </c>
+      <c r="H114" t="n">
         <v>0.4061816666666666</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4587,24 +4845,27 @@
         <v>29569.2853</v>
       </c>
       <c r="G115" t="n">
+        <v>0.4082799999999999</v>
+      </c>
+      <c r="H115" t="n">
         <v>0.4062583333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4628,24 +4889,27 @@
         <v>2487.5622</v>
       </c>
       <c r="G116" t="n">
+        <v>0.4084799999999999</v>
+      </c>
+      <c r="H116" t="n">
         <v>0.4063333333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4669,24 +4933,27 @@
         <v>2464.8756</v>
       </c>
       <c r="G117" t="n">
+        <v>0.4086799999999999</v>
+      </c>
+      <c r="H117" t="n">
         <v>0.4063583333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4710,24 +4977,27 @@
         <v>357811.1307</v>
       </c>
       <c r="G118" t="n">
+        <v>0.4088799999999999</v>
+      </c>
+      <c r="H118" t="n">
         <v>0.4063949999999999</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4751,24 +5021,27 @@
         <v>51442.3407</v>
       </c>
       <c r="G119" t="n">
+        <v>0.4090733333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>0.4064316666666665</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4792,24 +5065,27 @@
         <v>4360.9137</v>
       </c>
       <c r="G120" t="n">
+        <v>0.4090066666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>0.4064033333333332</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4833,24 +5109,27 @@
         <v>44974.6108</v>
       </c>
       <c r="G121" t="n">
+        <v>0.4092799999999999</v>
+      </c>
+      <c r="H121" t="n">
         <v>0.4064783333333332</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,24 +5153,27 @@
         <v>2464.2682</v>
       </c>
       <c r="G122" t="n">
+        <v>0.4093399999999999</v>
+      </c>
+      <c r="H122" t="n">
         <v>0.4065433333333332</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4915,24 +5197,27 @@
         <v>2440.2149</v>
       </c>
       <c r="G123" t="n">
+        <v>0.4093999999999999</v>
+      </c>
+      <c r="H123" t="n">
         <v>0.4065983333333332</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4956,24 +5241,27 @@
         <v>2491.9015</v>
       </c>
       <c r="G124" t="n">
+        <v>0.4092066666666666</v>
+      </c>
+      <c r="H124" t="n">
         <v>0.4066049999999999</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4997,24 +5285,27 @@
         <v>10986.8622</v>
       </c>
       <c r="G125" t="n">
+        <v>0.4089799999999999</v>
+      </c>
+      <c r="H125" t="n">
         <v>0.4066116666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,24 +5329,27 @@
         <v>170000</v>
       </c>
       <c r="G126" t="n">
+        <v>0.4087533333333332</v>
+      </c>
+      <c r="H126" t="n">
         <v>0.4066183333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5079,24 +5373,27 @@
         <v>2459.4196</v>
       </c>
       <c r="G127" t="n">
+        <v>0.4087399999999999</v>
+      </c>
+      <c r="H127" t="n">
         <v>0.4066466666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5120,24 +5417,27 @@
         <v>37491.8182</v>
       </c>
       <c r="G128" t="n">
+        <v>0.4087733333333332</v>
+      </c>
+      <c r="H128" t="n">
         <v>0.4066233333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5161,24 +5461,27 @@
         <v>215302.1653</v>
       </c>
       <c r="G129" t="n">
+        <v>0.4085466666666665</v>
+      </c>
+      <c r="H129" t="n">
         <v>0.4066033333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5202,24 +5505,27 @@
         <v>1432.6404</v>
       </c>
       <c r="G130" t="n">
+        <v>0.4085333333333331</v>
+      </c>
+      <c r="H130" t="n">
         <v>0.4066883333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,24 +5549,27 @@
         <v>1305.1443</v>
       </c>
       <c r="G131" t="n">
+        <v>0.4083066666666665</v>
+      </c>
+      <c r="H131" t="n">
         <v>0.4067133333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5284,24 +5593,27 @@
         <v>1440.6881</v>
       </c>
       <c r="G132" t="n">
+        <v>0.4082933333333331</v>
+      </c>
+      <c r="H132" t="n">
         <v>0.4067916666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5325,24 +5637,27 @@
         <v>120778.6842</v>
       </c>
       <c r="G133" t="n">
+        <v>0.4080666666666665</v>
+      </c>
+      <c r="H133" t="n">
         <v>0.4068166666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,24 +5681,27 @@
         <v>8684.2827</v>
       </c>
       <c r="G134" t="n">
+        <v>0.4078399999999998</v>
+      </c>
+      <c r="H134" t="n">
         <v>0.4068466666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5407,24 +5725,27 @@
         <v>48804.2948</v>
       </c>
       <c r="G135" t="n">
+        <v>0.4080866666666664</v>
+      </c>
+      <c r="H135" t="n">
         <v>0.4069583333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5448,24 +5769,27 @@
         <v>2207425.5264</v>
       </c>
       <c r="G136" t="n">
+        <v>0.4079533333333331</v>
+      </c>
+      <c r="H136" t="n">
         <v>0.4070066666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5489,24 +5813,27 @@
         <v>195259.0991</v>
       </c>
       <c r="G137" t="n">
+        <v>0.4077399999999998</v>
+      </c>
+      <c r="H137" t="n">
         <v>0.4070416666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5530,24 +5857,27 @@
         <v>130675.5887</v>
       </c>
       <c r="G138" t="n">
+        <v>0.4075666666666665</v>
+      </c>
+      <c r="H138" t="n">
         <v>0.4070866666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5571,26 +5901,27 @@
         <v>19699.4589</v>
       </c>
       <c r="G139" t="n">
+        <v>0.4076133333333332</v>
+      </c>
+      <c r="H139" t="n">
         <v>0.4071550000000001</v>
       </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>0.4072</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5614,24 +5945,27 @@
         <v>2170.5469</v>
       </c>
       <c r="G140" t="n">
+        <v>0.4076533333333332</v>
+      </c>
+      <c r="H140" t="n">
         <v>0.4072250000000001</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5655,24 +5989,27 @@
         <v>2903.8823</v>
       </c>
       <c r="G141" t="n">
+        <v>0.4076933333333332</v>
+      </c>
+      <c r="H141" t="n">
         <v>0.4073033333333334</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5696,24 +6033,27 @@
         <v>7190.62728825</v>
       </c>
       <c r="G142" t="n">
+        <v>0.4076866666666666</v>
+      </c>
+      <c r="H142" t="n">
         <v>0.4074233333333334</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5737,24 +6077,27 @@
         <v>786468.8364</v>
       </c>
       <c r="G143" t="n">
+        <v>0.4077266666666666</v>
+      </c>
+      <c r="H143" t="n">
         <v>0.4075216666666668</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5778,24 +6121,27 @@
         <v>120000</v>
       </c>
       <c r="G144" t="n">
+        <v>0.4079333333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>0.4075933333333335</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5819,24 +6165,27 @@
         <v>5214202.9531</v>
       </c>
       <c r="G145" t="n">
+        <v>0.4077133333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>0.4076800000000002</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5860,24 +6209,27 @@
         <v>1748856.6286</v>
       </c>
       <c r="G146" t="n">
+        <v>0.40768</v>
+      </c>
+      <c r="H146" t="n">
         <v>0.4077483333333334</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5901,24 +6253,27 @@
         <v>1773921.9112</v>
       </c>
       <c r="G147" t="n">
+        <v>0.4074066666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>0.4077516666666668</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5942,24 +6297,27 @@
         <v>525343.2689</v>
       </c>
       <c r="G148" t="n">
+        <v>0.4073466666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>0.4076883333333334</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5983,24 +6341,27 @@
         <v>428662.1846</v>
       </c>
       <c r="G149" t="n">
+        <v>0.4072866666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>0.4076266666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6024,24 +6385,27 @@
         <v>3699586.7775</v>
       </c>
       <c r="G150" t="n">
+        <v>0.4069333333333334</v>
+      </c>
+      <c r="H150" t="n">
         <v>0.407545</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6065,24 +6429,27 @@
         <v>1491.9233</v>
       </c>
       <c r="G151" t="n">
+        <v>0.4067266666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>0.4075683333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6106,24 +6473,27 @@
         <v>7954</v>
       </c>
       <c r="G152" t="n">
+        <v>0.4069333333333334</v>
+      </c>
+      <c r="H152" t="n">
         <v>0.4075816666666666</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6147,24 +6517,27 @@
         <v>6972.829</v>
       </c>
       <c r="G153" t="n">
+        <v>0.4071</v>
+      </c>
+      <c r="H153" t="n">
         <v>0.4076783333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,24 +6561,27 @@
         <v>87305.0828</v>
       </c>
       <c r="G154" t="n">
+        <v>0.4072533333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>0.4077116666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6229,24 +6605,27 @@
         <v>12328.948</v>
       </c>
       <c r="G155" t="n">
+        <v>0.4074</v>
+      </c>
+      <c r="H155" t="n">
         <v>0.4077683333333334</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6270,24 +6649,27 @@
         <v>6978.1226</v>
       </c>
       <c r="G156" t="n">
+        <v>0.40726</v>
+      </c>
+      <c r="H156" t="n">
         <v>0.4077550000000001</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6311,24 +6693,27 @@
         <v>3172.8283</v>
       </c>
       <c r="G157" t="n">
+        <v>0.4069533333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>0.4077700000000001</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6352,24 +6737,27 @@
         <v>3524.67024914</v>
       </c>
       <c r="G158" t="n">
+        <v>0.4071</v>
+      </c>
+      <c r="H158" t="n">
         <v>0.4078266666666668</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6393,24 +6781,27 @@
         <v>3524.6702</v>
       </c>
       <c r="G159" t="n">
+        <v>0.4068</v>
+      </c>
+      <c r="H159" t="n">
         <v>0.4078400000000002</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6434,24 +6825,27 @@
         <v>2499</v>
       </c>
       <c r="G160" t="n">
+        <v>0.4069933333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>0.4078800000000002</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6475,24 +6869,27 @@
         <v>96402.8683</v>
       </c>
       <c r="G161" t="n">
+        <v>0.4069333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>0.4078500000000002</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6516,24 +6913,27 @@
         <v>103597.1317</v>
       </c>
       <c r="G162" t="n">
+        <v>0.4068999999999999</v>
+      </c>
+      <c r="H162" t="n">
         <v>0.4078200000000002</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6557,24 +6957,27 @@
         <v>17029.79970688</v>
       </c>
       <c r="G163" t="n">
+        <v>0.4071466666666665</v>
+      </c>
+      <c r="H163" t="n">
         <v>0.4078600000000003</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6598,24 +7001,27 @@
         <v>350000</v>
       </c>
       <c r="G164" t="n">
+        <v>0.4070866666666665</v>
+      </c>
+      <c r="H164" t="n">
         <v>0.407821666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6639,24 +7045,27 @@
         <v>1538.7728</v>
       </c>
       <c r="G165" t="n">
+        <v>0.4070999999999999</v>
+      </c>
+      <c r="H165" t="n">
         <v>0.4077816666666669</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6680,24 +7089,27 @@
         <v>39600</v>
       </c>
       <c r="G166" t="n">
+        <v>0.4070999999999999</v>
+      </c>
+      <c r="H166" t="n">
         <v>0.4077650000000003</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,24 +7133,27 @@
         <v>10000</v>
       </c>
       <c r="G167" t="n">
+        <v>0.4067799999999998</v>
+      </c>
+      <c r="H167" t="n">
         <v>0.4076983333333336</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6762,24 +7177,27 @@
         <v>303098.0818</v>
       </c>
       <c r="G168" t="n">
+        <v>0.4067533333333332</v>
+      </c>
+      <c r="H168" t="n">
         <v>0.4077050000000003</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6803,24 +7221,27 @@
         <v>18783.5078</v>
       </c>
       <c r="G169" t="n">
+        <v>0.4067399999999998</v>
+      </c>
+      <c r="H169" t="n">
         <v>0.4077033333333336</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6844,24 +7265,27 @@
         <v>150000</v>
       </c>
       <c r="G170" t="n">
+        <v>0.4064733333333332</v>
+      </c>
+      <c r="H170" t="n">
         <v>0.4076266666666669</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6885,24 +7309,27 @@
         <v>915477.7642</v>
       </c>
       <c r="G171" t="n">
+        <v>0.4067066666666665</v>
+      </c>
+      <c r="H171" t="n">
         <v>0.4076033333333335</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6926,24 +7353,27 @@
         <v>1304055.8792</v>
       </c>
       <c r="G172" t="n">
+        <v>0.4067199999999998</v>
+      </c>
+      <c r="H172" t="n">
         <v>0.4075250000000002</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6967,24 +7397,27 @@
         <v>14979.4386</v>
       </c>
       <c r="G173" t="n">
+        <v>0.4064466666666665</v>
+      </c>
+      <c r="H173" t="n">
         <v>0.4075116666666669</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7008,24 +7441,27 @@
         <v>5142.01762977</v>
       </c>
       <c r="G174" t="n">
+        <v>0.4066599999999998</v>
+      </c>
+      <c r="H174" t="n">
         <v>0.4074850000000003</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7049,24 +7485,27 @@
         <v>732921.5535</v>
       </c>
       <c r="G175" t="n">
+        <v>0.4065866666666665</v>
+      </c>
+      <c r="H175" t="n">
         <v>0.4074566666666669</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7090,24 +7529,27 @@
         <v>4881.2147</v>
       </c>
       <c r="G176" t="n">
+        <v>0.4067933333333331</v>
+      </c>
+      <c r="H176" t="n">
         <v>0.4074283333333336</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7131,24 +7573,27 @@
         <v>48894.9195</v>
       </c>
       <c r="G177" t="n">
+        <v>0.4069799999999998</v>
+      </c>
+      <c r="H177" t="n">
         <v>0.4073950000000003</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7172,24 +7617,27 @@
         <v>382009.2049</v>
       </c>
       <c r="G178" t="n">
+        <v>0.4068866666666666</v>
+      </c>
+      <c r="H178" t="n">
         <v>0.407361666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7213,24 +7661,27 @@
         <v>5545086.3527</v>
       </c>
       <c r="G179" t="n">
+        <v>0.4070999999999999</v>
+      </c>
+      <c r="H179" t="n">
         <v>0.4073283333333337</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7254,24 +7705,27 @@
         <v>6313.6946</v>
       </c>
       <c r="G180" t="n">
+        <v>0.4071533333333333</v>
+      </c>
+      <c r="H180" t="n">
         <v>0.4073183333333337</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7295,24 +7749,27 @@
         <v>76168.03200000001</v>
       </c>
       <c r="G181" t="n">
+        <v>0.4073666666666665</v>
+      </c>
+      <c r="H181" t="n">
         <v>0.407286666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7336,24 +7793,27 @@
         <v>86820.5318</v>
       </c>
       <c r="G182" t="n">
+        <v>0.4075666666666666</v>
+      </c>
+      <c r="H182" t="n">
         <v>0.4072550000000004</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7377,24 +7837,27 @@
         <v>8934.2701</v>
       </c>
       <c r="G183" t="n">
+        <v>0.4074799999999999</v>
+      </c>
+      <c r="H183" t="n">
         <v>0.4072250000000004</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7418,24 +7881,27 @@
         <v>259452.0189</v>
       </c>
       <c r="G184" t="n">
+        <v>0.4073933333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>0.4072500000000004</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7459,24 +7925,27 @@
         <v>519776.368</v>
       </c>
       <c r="G185" t="n">
+        <v>0.4075666666666666</v>
+      </c>
+      <c r="H185" t="n">
         <v>0.4072733333333337</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7500,24 +7969,27 @@
         <v>3336435.3505</v>
       </c>
       <c r="G186" t="n">
+        <v>0.4075466666666666</v>
+      </c>
+      <c r="H186" t="n">
         <v>0.4073016666666671</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7541,24 +8013,27 @@
         <v>533444.694</v>
       </c>
       <c r="G187" t="n">
+        <v>0.4075999999999999</v>
+      </c>
+      <c r="H187" t="n">
         <v>0.4072400000000004</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7582,24 +8057,27 @@
         <v>1803.7152</v>
       </c>
       <c r="G188" t="n">
+        <v>0.4076533333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>0.407231666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,24 +8101,27 @@
         <v>2623693.4511</v>
       </c>
       <c r="G189" t="n">
+        <v>0.4074933333333332</v>
+      </c>
+      <c r="H189" t="n">
         <v>0.4072216666666669</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7664,24 +8145,27 @@
         <v>65641.4215</v>
       </c>
       <c r="G190" t="n">
+        <v>0.4073266666666666</v>
+      </c>
+      <c r="H190" t="n">
         <v>0.4071550000000003</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7705,24 +8189,27 @@
         <v>106184.3357</v>
       </c>
       <c r="G191" t="n">
+        <v>0.40716</v>
+      </c>
+      <c r="H191" t="n">
         <v>0.4071416666666669</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7746,24 +8233,27 @@
         <v>110114.6442</v>
       </c>
       <c r="G192" t="n">
+        <v>0.4070133333333333</v>
+      </c>
+      <c r="H192" t="n">
         <v>0.4070750000000002</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7787,24 +8277,27 @@
         <v>2006.4182</v>
       </c>
       <c r="G193" t="n">
+        <v>0.4068666666666666</v>
+      </c>
+      <c r="H193" t="n">
         <v>0.4070616666666668</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7828,24 +8321,27 @@
         <v>10299.5594</v>
       </c>
       <c r="G194" t="n">
+        <v>0.4066933333333332</v>
+      </c>
+      <c r="H194" t="n">
         <v>0.4070416666666669</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7869,24 +8365,27 @@
         <v>11015769.3015</v>
       </c>
       <c r="G195" t="n">
+        <v>0.4066333333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>0.4069550000000001</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7910,24 +8409,479 @@
         <v>737508.6649</v>
       </c>
       <c r="G196" t="n">
+        <v>0.4064133333333333</v>
+      </c>
+      <c r="H196" t="n">
         <v>0.4069016666666668</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.4045</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.4034</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.4045</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.4034</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1079898.8063</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.4061133333333333</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.4068483333333334</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.4033</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.4033</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.4033</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.4033</v>
+      </c>
+      <c r="F198" t="n">
+        <v>151252.1697</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.4057999999999999</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.4067833333333334</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.4057</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.4058</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.4058</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.4057</v>
+      </c>
+      <c r="F199" t="n">
+        <v>764217.2651</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.4056533333333333</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.4067600000000001</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0.4033</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.4036</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.4036</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.4036</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.4036</v>
+      </c>
+      <c r="F200" t="n">
+        <v>203267.3237</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.4053599999999999</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.4067000000000001</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.4036</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.4036</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.4036</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.4036</v>
+      </c>
+      <c r="F201" t="n">
+        <v>60980.1971</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.4050466666666666</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.4066400000000002</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.4031</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.4022</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.4032</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.4022</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1226144.1331</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.4047866666666665</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.4065150000000001</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0.4036</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.4022</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.4022</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.4022</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.4022</v>
+      </c>
+      <c r="F203" t="n">
+        <v>329837.2963</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.4045266666666665</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.4064316666666669</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0.4022</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.4021</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.4021</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="F204" t="n">
+        <v>368298.0213</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.4042599999999998</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.4063033333333335</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0.4022</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
         <v>0.4013</v>
       </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="C205" t="n">
+        <v>0.4013</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.4013</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.4013</v>
+      </c>
+      <c r="F205" t="n">
+        <v>14070542.1122</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.4039599999999998</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.4062166666666668</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.4012</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.4011</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.4012</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.4011</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1972450.6956</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.4036466666666665</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.4061333333333335</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0.4013</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest BTT.xlsx
+++ b/BackTest/2020-01-21 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N264"/>
+  <dimension ref="A1:M264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-32060260.14002985</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,24 +517,15 @@
         <v>-31841144.33872985</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.4009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,24 +550,15 @@
         <v>-31984092.83982985</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.4015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -612,24 +583,15 @@
         <v>-31980893.67382985</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.4005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -654,24 +616,15 @@
         <v>-31980893.67382985</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.4018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -696,24 +649,15 @@
         <v>-39123340.07662985</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.4018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -738,24 +682,15 @@
         <v>-35979338.81002985</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.4005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -780,24 +715,15 @@
         <v>-35977362.62452985</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.4018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -822,24 +748,15 @@
         <v>-34373902.26822984</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.4032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -866,20 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -906,20 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -944,22 +847,15 @@
         <v>-32716716.16282984</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -984,22 +880,15 @@
         <v>-32789302.44912984</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1024,22 +913,15 @@
         <v>-32885855.84852984</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1064,22 +946,15 @@
         <v>-33091583.28352984</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1106,20 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1146,20 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1184,22 +1045,15 @@
         <v>-31605225.17243208</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1224,22 +1078,15 @@
         <v>-31605225.17243208</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1266,20 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1306,20 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1346,20 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1384,22 +1210,15 @@
         <v>-38165989.22323208</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1426,20 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1466,20 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1506,20 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1546,20 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1586,20 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1626,20 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1666,20 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1706,20 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1746,20 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1786,20 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1826,20 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1866,20 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1906,20 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1946,20 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1984,24 +1705,15 @@
         <v>-49817164.27101588</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.4044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2026,24 +1738,15 @@
         <v>-50433828.86561588</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.4044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2068,24 +1771,21 @@
         <v>-50433828.86561588</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
         <v>0.4043</v>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2110,24 +1810,21 @@
         <v>-50433828.86561588</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
         <v>0.4043</v>
       </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2152,24 +1849,21 @@
         <v>-51748390.33911588</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
         <v>0.4043</v>
       </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2194,24 +1888,21 @@
         <v>-51747140.33911588</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
         <v>0.4015</v>
       </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2236,24 +1927,21 @@
         <v>-51814878.72871588</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
         <v>0.4044</v>
       </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2278,24 +1966,21 @@
         <v>-51934857.73381588</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
         <v>0.4043</v>
       </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2320,24 +2005,21 @@
         <v>-51933407.73381588</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
         <v>0.4012</v>
       </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2362,24 +2044,21 @@
         <v>-51952471.30911588</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
         <v>0.4036</v>
       </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2404,24 +2083,21 @@
         <v>-51952471.30911588</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
         <v>0.4034</v>
       </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2446,24 +2122,21 @@
         <v>-51951223.41721588</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
         <v>0.4034</v>
       </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2488,24 +2161,21 @@
         <v>-51949973.19421588</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
         <v>0.4038</v>
       </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2530,24 +2200,19 @@
         <v>-45910016.79131588</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.4042</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2572,24 +2237,19 @@
         <v>-45910016.79131588</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2614,24 +2274,21 @@
         <v>-45910016.79131588</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
         <v>0.4044</v>
       </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2656,24 +2313,21 @@
         <v>-45865065.95241588</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
         <v>0.4044</v>
       </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2700,20 +2354,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2740,20 +2391,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2780,20 +2428,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2820,20 +2465,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2860,20 +2502,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2900,20 +2539,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2940,20 +2576,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2980,20 +2613,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3020,20 +2650,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3060,20 +2687,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3100,20 +2724,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3140,20 +2761,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3180,20 +2798,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3220,20 +2835,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3260,20 +2872,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3300,20 +2909,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3340,20 +2946,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3380,20 +2983,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3420,20 +3020,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3460,20 +3057,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3500,20 +3094,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3540,20 +3131,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3580,20 +3168,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3620,20 +3205,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3660,20 +3242,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3700,20 +3279,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3740,20 +3316,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3780,20 +3353,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3820,20 +3390,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3860,20 +3427,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3900,20 +3464,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3940,20 +3501,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3980,20 +3538,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4020,20 +3575,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4060,20 +3612,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4100,20 +3649,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4140,20 +3686,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4180,20 +3723,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4220,20 +3760,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4260,20 +3797,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4300,20 +3834,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4340,20 +3871,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4380,20 +3908,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4420,20 +3945,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4460,20 +3982,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4500,20 +4019,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4540,20 +4056,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4580,20 +4093,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4620,20 +4130,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4660,20 +4167,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4700,20 +4204,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4740,20 +4241,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4780,20 +4278,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4820,20 +4315,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4860,20 +4352,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4900,20 +4389,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4940,20 +4426,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4980,20 +4463,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5020,20 +4500,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5060,20 +4537,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5100,20 +4574,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5140,20 +4611,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5180,20 +4648,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5220,20 +4685,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5260,20 +4722,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5300,20 +4759,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5340,20 +4796,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5380,20 +4833,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5420,20 +4870,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5460,20 +4907,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5500,20 +4944,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5540,20 +4981,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5580,20 +5018,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5620,20 +5055,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5660,20 +5092,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5700,20 +5129,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5740,20 +5166,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5780,20 +5203,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5820,20 +5240,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5860,20 +5277,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5900,20 +5314,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5940,20 +5351,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5980,20 +5388,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6020,20 +5425,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6060,20 +5462,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6100,20 +5499,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6140,20 +5536,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6180,20 +5573,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6220,20 +5610,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6260,20 +5647,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6300,20 +5684,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6340,20 +5721,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6380,20 +5758,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6420,20 +5795,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6460,20 +5832,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6500,20 +5869,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6540,20 +5906,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6580,20 +5943,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6620,20 +5980,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6660,20 +6017,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6700,20 +6054,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6740,20 +6091,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6780,20 +6128,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6820,20 +6165,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6860,20 +6202,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6900,20 +6239,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6940,20 +6276,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6980,20 +6313,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7020,20 +6350,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7060,20 +6387,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7100,20 +6424,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7138,22 +6459,17 @@
         <v>124167208.4461015</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7178,22 +6494,15 @@
         <v>124167208.4461015</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7218,22 +6527,15 @@
         <v>124167208.4461015</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7260,20 +6562,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7300,20 +6595,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7340,20 +6628,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7380,20 +6661,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7420,20 +6694,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7458,22 +6725,15 @@
         <v>122120825.5479015</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7498,20 +6758,15 @@
         <v>122120825.5479015</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L177" t="n">
+        <v>1</v>
       </c>
       <c r="M177" t="inlineStr"/>
-      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7538,16 +6793,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7574,16 +6826,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7610,16 +6859,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7646,16 +6892,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7680,18 +6923,15 @@
         <v>122158947.3435015</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7718,16 +6958,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7754,16 +6991,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7790,16 +7024,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7826,16 +7057,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7860,18 +7088,15 @@
         <v>122134901.8071015</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7898,16 +7123,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7932,18 +7154,15 @@
         <v>122135029.3032015</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7970,16 +7189,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8006,16 +7222,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8042,16 +7255,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8078,16 +7288,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8114,16 +7321,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8150,16 +7354,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8186,16 +7387,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8222,16 +7420,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8258,16 +7453,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8292,18 +7484,15 @@
         <v>119792486.5651015</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8330,16 +7519,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8366,16 +7552,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8402,16 +7585,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8438,16 +7618,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8474,16 +7651,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8510,16 +7684,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8546,16 +7717,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8582,16 +7750,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8618,16 +7783,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8654,16 +7816,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8690,16 +7849,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8726,16 +7882,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8762,16 +7915,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8798,16 +7948,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>1</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8834,16 +7981,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8870,16 +8014,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8906,16 +8047,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8942,16 +8080,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8978,16 +8113,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9014,16 +8146,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9050,16 +8179,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9086,16 +8212,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9122,16 +8245,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9158,16 +8278,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9194,16 +8311,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9230,16 +8344,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9266,16 +8377,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9302,16 +8410,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9338,16 +8443,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9374,16 +8476,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9410,16 +8509,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9446,16 +8542,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9482,16 +8575,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9518,16 +8608,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9554,16 +8641,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9590,16 +8674,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9626,16 +8707,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9662,16 +8740,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9698,16 +8773,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9734,16 +8806,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9770,16 +8839,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9806,16 +8872,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9842,16 +8905,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9878,16 +8938,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9914,16 +8971,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9950,16 +9004,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9986,16 +9037,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10022,16 +9070,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10058,16 +9103,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10094,16 +9136,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10130,16 +9169,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10166,16 +9202,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10202,16 +9235,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10238,16 +9268,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10274,16 +9301,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10310,16 +9334,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10346,16 +9367,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10382,16 +9400,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10418,16 +9433,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10454,16 +9466,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10490,16 +9499,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10526,16 +9532,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10562,16 +9565,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10598,16 +9598,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10634,18 +9631,15 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest BTT.xlsx
+++ b/BackTest/2020-01-21 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-32060260.14002985</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-32716716.16282984</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-32789302.44912984</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-32885855.84852984</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-33091583.28352984</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-31605225.17243208</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-31605225.17243208</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-38165989.22323208</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1375,10 +1375,14 @@
         <v>-37973852.95191588</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.4049</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
@@ -1411,8 +1415,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0.4049</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1451,19 @@
         <v>-32060744.98111588</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.4049</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.4049</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1495,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0.4049</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1531,19 @@
         <v>-32062244.98111588</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.4065</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.4049</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1575,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0.4049</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1611,19 @@
         <v>-49818414.70081588</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.4011</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.4049</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1655,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.4049</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1694,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0.4049</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1730,19 @@
         <v>-49817164.27101588</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.4043</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.4049</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1771,19 @@
         <v>-49817164.27101588</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.4049</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1812,19 @@
         <v>-50433828.86561588</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.4049</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,15 +1853,17 @@
         <v>-50433828.86561588</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0.4043</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -1810,12 +1894,14 @@
         <v>-50433828.86561588</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0.4043</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1849,12 +1935,14 @@
         <v>-51748390.33911588</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0.4043</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1888,12 +1976,14 @@
         <v>-51747140.33911588</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0.4015</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1927,12 +2017,14 @@
         <v>-51814878.72871588</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0.4044</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1966,12 +2058,14 @@
         <v>-51934857.73381588</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0.4043</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2005,12 +2099,14 @@
         <v>-51933407.73381588</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0.4012</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2044,12 +2140,14 @@
         <v>-51952471.30911588</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0.4036</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2083,12 +2181,14 @@
         <v>-51952471.30911588</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0.4034</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2122,12 +2222,14 @@
         <v>-51951223.41721588</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0.4034</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2161,12 +2263,14 @@
         <v>-51949973.19421588</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0.4038</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2200,10 +2304,14 @@
         <v>-45910016.79131588</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.4042</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2237,10 +2345,14 @@
         <v>-45910016.79131588</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2274,12 +2386,14 @@
         <v>-45910016.79131588</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0.4044</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2313,12 +2427,14 @@
         <v>-45865065.95241588</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0.4044</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2355,7 +2471,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2392,7 +2510,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2429,7 +2549,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2466,7 +2588,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2503,7 +2627,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2540,7 +2666,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2577,7 +2705,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2614,7 +2744,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2651,7 +2783,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2688,7 +2822,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2725,7 +2861,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2762,7 +2900,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2799,7 +2939,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2836,7 +2978,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2873,7 +3017,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2910,7 +3056,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2947,7 +3095,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2984,7 +3134,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3021,7 +3173,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3058,7 +3212,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3095,7 +3251,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3132,7 +3290,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3169,7 +3329,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3206,7 +3368,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3243,7 +3407,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3280,7 +3446,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3317,7 +3485,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3354,7 +3524,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3391,7 +3563,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3428,7 +3602,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3465,7 +3641,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3502,7 +3680,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3539,7 +3719,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3576,7 +3758,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3613,7 +3797,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3650,7 +3836,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3687,7 +3875,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3724,7 +3914,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3761,7 +3953,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3798,7 +3992,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3835,7 +4031,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3872,7 +4070,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3909,7 +4109,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3946,7 +4148,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3983,7 +4187,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4020,7 +4226,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4057,7 +4265,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4094,7 +4304,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4131,7 +4343,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4168,7 +4382,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4205,7 +4421,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4242,7 +4460,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4279,7 +4499,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4316,7 +4538,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4353,7 +4577,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4390,7 +4616,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4427,7 +4655,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4464,7 +4694,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4501,7 +4733,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4538,7 +4772,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4575,7 +4811,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4612,7 +4850,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4649,7 +4889,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4686,7 +4928,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4723,7 +4967,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4760,7 +5006,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4797,7 +5045,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4834,7 +5084,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4871,7 +5123,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4908,7 +5162,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4945,7 +5201,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4982,7 +5240,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5019,7 +5279,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5056,7 +5318,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5093,7 +5357,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5130,7 +5396,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5167,7 +5435,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5204,7 +5474,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5241,7 +5513,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5278,7 +5552,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5315,7 +5591,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5352,7 +5630,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5389,7 +5669,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5426,7 +5708,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5463,7 +5747,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5500,7 +5786,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5537,7 +5825,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5574,7 +5864,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5611,7 +5903,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5648,7 +5942,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5685,7 +5981,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5722,7 +6020,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5759,7 +6059,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5796,7 +6098,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5833,7 +6137,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5870,7 +6176,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5907,7 +6215,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5944,7 +6254,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5981,7 +6293,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6018,7 +6332,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6055,7 +6371,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6092,7 +6410,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6129,7 +6449,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6166,7 +6488,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6203,7 +6527,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6240,7 +6566,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6277,7 +6605,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6314,7 +6644,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6351,7 +6683,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6388,7 +6722,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6422,17 +6758,19 @@
         <v>122950736.2608015</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0.4049</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L167" t="n">
-        <v>1</v>
+        <v>1.006113855272907</v>
       </c>
       <c r="M167" t="inlineStr"/>
     </row>
@@ -6459,16 +6797,14 @@
         <v>124167208.4461015</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
       <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
@@ -6494,7 +6830,7 @@
         <v>124167208.4461015</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6527,7 +6863,7 @@
         <v>124167208.4461015</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6560,7 +6896,7 @@
         <v>122100451.7021015</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6593,7 +6929,7 @@
         <v>122120825.5479015</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6626,7 +6962,7 @@
         <v>122120825.5479015</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6659,7 +6995,7 @@
         <v>122120825.5479015</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6725,7 +7061,7 @@
         <v>122120825.5479015</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6758,7 +7094,7 @@
         <v>122120825.5479015</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6923,7 +7259,7 @@
         <v>122158947.3435015</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7088,7 +7424,7 @@
         <v>122134901.8071015</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7121,7 +7457,7 @@
         <v>122136334.4475015</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7154,7 +7490,7 @@
         <v>122135029.3032015</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7187,7 +7523,7 @@
         <v>122136469.9913015</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7220,7 +7556,7 @@
         <v>122015691.3071015</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7253,7 +7589,7 @@
         <v>122015691.3071015</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7286,7 +7622,7 @@
         <v>122064495.6019015</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7319,7 +7655,7 @@
         <v>119857070.0755015</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7352,7 +7688,7 @@
         <v>119661810.9764015</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7385,7 +7721,7 @@
         <v>119792486.5651015</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7418,7 +7754,7 @@
         <v>119792486.5651015</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7451,7 +7787,7 @@
         <v>119792486.5651015</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7484,7 +7820,7 @@
         <v>119792486.5651015</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7517,7 +7853,7 @@
         <v>119799677.1923897</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7550,7 +7886,7 @@
         <v>119013208.3559897</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7781,7 +8117,7 @@
         <v>106696640.0855897</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7814,7 +8150,7 @@
         <v>106698132.0088897</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7847,7 +8183,7 @@
         <v>106706086.0088897</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7880,7 +8216,7 @@
         <v>106706086.0088897</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7913,7 +8249,7 @@
         <v>106618780.9260897</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7946,7 +8282,7 @@
         <v>106606451.9780897</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7979,7 +8315,7 @@
         <v>106599473.8554897</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8012,7 +8348,7 @@
         <v>106599473.8554897</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8078,7 +8414,7 @@
         <v>106599473.8555388</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8243,7 +8579,7 @@
         <v>106172599.7869457</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8309,7 +8645,7 @@
         <v>106171061.0141457</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8342,7 +8678,7 @@
         <v>106181061.0141457</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8375,7 +8711,7 @@
         <v>106484159.0959457</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8705,7 +9041,7 @@
         <v>105168906.5255755</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8738,7 +9074,7 @@
         <v>105168906.5255755</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8771,7 +9107,7 @@
         <v>105162592.8309755</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8804,7 +9140,7 @@
         <v>105238760.8629755</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8837,7 +9173,7 @@
         <v>105238760.8629755</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8870,7 +9206,7 @@
         <v>105247695.1330755</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9002,7 +9338,7 @@
         <v>108050685.7895755</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9101,7 +9437,7 @@
         <v>105361350.9169755</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9134,7 +9470,7 @@
         <v>105361350.9169755</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9167,7 +9503,7 @@
         <v>105361350.9169755</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9200,7 +9536,7 @@
         <v>105361350.9169755</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9431,7 +9767,7 @@
         <v>93665081.02147549</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9640,6 +9976,6 @@
       <c r="M264" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest BTT.xlsx
+++ b/BackTest/2020-01-21 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1012,10 +1012,14 @@
         <v>-33089123.21963208</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.4042</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4042</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1048,8 +1052,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0.4042</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1091,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0.4042</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1375,14 +1391,10 @@
         <v>-37973852.95191588</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.4049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
@@ -1415,14 +1427,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1451,19 +1457,11 @@
         <v>-32060744.98111588</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1495,14 +1493,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1531,19 +1523,11 @@
         <v>-32062244.98111588</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.4065</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1575,14 +1559,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1611,19 +1589,11 @@
         <v>-49818414.70081588</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.4011</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1655,14 +1625,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1694,14 +1658,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1730,19 +1688,11 @@
         <v>-49817164.27101588</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.4043</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1771,19 +1721,11 @@
         <v>-49817164.27101588</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1812,19 +1754,11 @@
         <v>-50433828.86561588</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1853,19 +1787,11 @@
         <v>-50433828.86561588</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.4043</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1894,19 +1820,11 @@
         <v>-50433828.86561588</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.4043</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1935,19 +1853,11 @@
         <v>-51748390.33911588</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.4043</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1976,19 +1886,11 @@
         <v>-51747140.33911588</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.4015</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2017,19 +1919,11 @@
         <v>-51814878.72871588</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2058,19 +1952,11 @@
         <v>-51934857.73381588</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.4043</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2099,19 +1985,11 @@
         <v>-51933407.73381588</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.4012</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2140,19 +2018,11 @@
         <v>-51952471.30911588</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.4036</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2181,19 +2051,11 @@
         <v>-51952471.30911588</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.4034</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2222,19 +2084,11 @@
         <v>-51951223.41721588</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.4034</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2263,19 +2117,11 @@
         <v>-51949973.19421588</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.4038</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2304,19 +2150,11 @@
         <v>-45910016.79131588</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.4042</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2345,19 +2183,11 @@
         <v>-45910016.79131588</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2386,19 +2216,11 @@
         <v>-45910016.79131588</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2427,19 +2249,11 @@
         <v>-45865065.95241588</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2468,17 +2282,11 @@
         <v>-43815190.18221588</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2507,17 +2315,11 @@
         <v>-44829953.83621588</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2546,17 +2348,11 @@
         <v>-54403306.65061588</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2585,17 +2381,11 @@
         <v>-54403306.65061588</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2627,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2666,14 +2450,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2705,14 +2483,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2744,14 +2516,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2783,14 +2549,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2822,14 +2582,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2861,14 +2615,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2900,14 +2648,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2939,14 +2681,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2978,14 +2714,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3017,14 +2747,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3056,14 +2780,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3095,14 +2813,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3134,14 +2846,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3173,14 +2879,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3212,14 +2912,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3251,14 +2945,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3290,14 +2978,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3329,14 +3011,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3368,14 +3044,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3407,14 +3077,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3446,14 +3110,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3485,14 +3143,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3524,14 +3176,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3563,14 +3209,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3602,14 +3242,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3641,14 +3275,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3680,14 +3308,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3719,14 +3341,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3758,14 +3374,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3797,14 +3407,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3836,14 +3440,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3875,14 +3473,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3914,14 +3506,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3953,14 +3539,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3992,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4031,14 +3605,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4070,14 +3638,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4109,14 +3671,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4148,14 +3704,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4187,14 +3737,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4226,14 +3770,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4265,14 +3803,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4304,14 +3836,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4343,14 +3869,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4382,14 +3902,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4421,14 +3935,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4460,14 +3968,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4499,14 +4001,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4538,14 +4034,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4577,14 +4067,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4616,14 +4100,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4655,14 +4133,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4694,14 +4166,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4733,14 +4199,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4772,14 +4232,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4811,14 +4265,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4850,14 +4298,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4889,14 +4331,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4928,14 +4364,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4964,17 +4394,15 @@
         <v>-106598946.6013542</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.4059</v>
+      </c>
       <c r="J121" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.4059</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5003,15 +4431,17 @@
         <v>-106621821.1197542</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.4065</v>
+      </c>
       <c r="J122" t="n">
-        <v>0.4049</v>
+        <v>0.4059</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -5046,11 +4476,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>0.4049</v>
+        <v>0.4059</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -5084,14 +4514,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5123,14 +4547,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5162,14 +4580,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5201,14 +4613,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5240,14 +4646,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5279,14 +4679,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5318,14 +4712,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5357,14 +4745,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5396,14 +4778,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5435,14 +4811,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5474,14 +4844,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5513,14 +4877,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5552,14 +4910,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5591,14 +4943,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5630,14 +4976,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5669,14 +5009,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5708,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5747,14 +5075,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5786,14 +5108,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5825,14 +5141,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5864,14 +5174,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5900,17 +5204,15 @@
         <v>116931664.7492458</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.402</v>
+      </c>
       <c r="J145" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.402</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5943,11 +5245,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>0.4049</v>
+        <v>0.402</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L146" t="n">
@@ -5982,11 +5284,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>0.4049</v>
+        <v>0.402</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L147" t="n">
@@ -6020,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6059,14 +5355,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6098,14 +5388,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6137,14 +5421,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6176,14 +5454,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6215,14 +5487,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6254,14 +5520,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6293,14 +5553,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6332,14 +5586,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6371,14 +5619,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6410,14 +5652,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6449,14 +5685,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6488,14 +5718,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6527,14 +5751,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6566,14 +5784,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6605,14 +5817,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6644,14 +5850,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6683,14 +5883,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6722,14 +5916,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6758,19 +5946,13 @@
         <v>122950736.2608015</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>0.4049</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
-        <v>1.006113855272907</v>
+        <v>1</v>
       </c>
       <c r="M167" t="inlineStr"/>
     </row>
@@ -6863,7 +6045,7 @@
         <v>124167208.4461015</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6896,7 +6078,7 @@
         <v>122100451.7021015</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6929,7 +6111,7 @@
         <v>122120825.5479015</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6962,7 +6144,7 @@
         <v>122120825.5479015</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6995,7 +6177,7 @@
         <v>122120825.5479015</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7226,7 +6408,7 @@
         <v>122161439.2450015</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7259,7 +6441,7 @@
         <v>122158947.3435015</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7292,7 +6474,7 @@
         <v>122169934.2057015</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7325,7 +6507,7 @@
         <v>122169934.2057015</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7424,7 +6606,7 @@
         <v>122134901.8071015</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7457,7 +6639,7 @@
         <v>122136334.4475015</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7490,7 +6672,7 @@
         <v>122135029.3032015</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7523,7 +6705,7 @@
         <v>122136469.9913015</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7556,7 +6738,7 @@
         <v>122015691.3071015</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7589,7 +6771,7 @@
         <v>122015691.3071015</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7622,7 +6804,7 @@
         <v>122064495.6019015</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7655,7 +6837,7 @@
         <v>119857070.0755015</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7688,7 +6870,7 @@
         <v>119661810.9764015</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7721,7 +6903,7 @@
         <v>119792486.5651015</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7754,7 +6936,7 @@
         <v>119792486.5651015</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7787,7 +6969,7 @@
         <v>119792486.5651015</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7820,7 +7002,7 @@
         <v>119792486.5651015</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7853,7 +7035,7 @@
         <v>119799677.1923897</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7886,7 +7068,7 @@
         <v>119013208.3559897</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8117,7 +7299,7 @@
         <v>106696640.0855897</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8150,7 +7332,7 @@
         <v>106698132.0088897</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8183,7 +7365,7 @@
         <v>106706086.0088897</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8216,7 +7398,7 @@
         <v>106706086.0088897</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8249,7 +7431,7 @@
         <v>106618780.9260897</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8282,7 +7464,7 @@
         <v>106606451.9780897</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8315,7 +7497,7 @@
         <v>106599473.8554897</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8348,7 +7530,7 @@
         <v>106599473.8554897</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8414,7 +7596,7 @@
         <v>106599473.8555388</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8579,7 +7761,7 @@
         <v>106172599.7869457</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8645,7 +7827,7 @@
         <v>106171061.0141457</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8678,7 +7860,7 @@
         <v>106181061.0141457</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8711,7 +7893,7 @@
         <v>106484159.0959457</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9041,7 +8223,7 @@
         <v>105168906.5255755</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9074,7 +8256,7 @@
         <v>105168906.5255755</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9107,7 +8289,7 @@
         <v>105162592.8309755</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9140,7 +8322,7 @@
         <v>105238760.8629755</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9173,7 +8355,7 @@
         <v>105238760.8629755</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9206,7 +8388,7 @@
         <v>105247695.1330755</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9338,7 +8520,7 @@
         <v>108050685.7895755</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9437,7 +8619,7 @@
         <v>105361350.9169755</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9470,7 +8652,7 @@
         <v>105361350.9169755</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9503,7 +8685,7 @@
         <v>105361350.9169755</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9536,7 +8718,7 @@
         <v>105361350.9169755</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9767,7 +8949,7 @@
         <v>93665081.02147549</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9976,6 +9158,6 @@
       <c r="M264" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest BTT.xlsx
+++ b/BackTest/2020-01-21 BackTest BTT.xlsx
@@ -814,7 +814,7 @@
         <v>-32716716.16282984</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-32716716.16282984</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1012,14 +1012,10 @@
         <v>-33089123.21963208</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.4042</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.4042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1052,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>0.4042</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1091,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>0.4042</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1490,7 +1474,7 @@
         <v>-32060744.98111588</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1523,7 +1507,7 @@
         <v>-32062244.98111588</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1820,10 +1804,14 @@
         <v>-50433828.86561588</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.4043</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.4043</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1853,11 +1841,19 @@
         <v>-51748390.33911588</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.4043</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.4043</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1886,11 +1882,19 @@
         <v>-51747140.33911588</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.4015</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.4043</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1919,10 +1923,14 @@
         <v>-51814878.72871588</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.4044</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
@@ -1952,11 +1960,19 @@
         <v>-51934857.73381588</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.4043</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1985,11 +2001,19 @@
         <v>-51933407.73381588</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.4012</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2018,11 +2042,19 @@
         <v>-51952471.30911588</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.4036</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2051,11 +2083,19 @@
         <v>-51952471.30911588</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.4034</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2084,11 +2124,19 @@
         <v>-51951223.41721588</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.4034</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2117,11 +2165,19 @@
         <v>-51949973.19421588</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.4038</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2150,11 +2206,19 @@
         <v>-45910016.79131588</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.4042</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2183,11 +2247,19 @@
         <v>-45910016.79131588</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2216,11 +2288,19 @@
         <v>-45910016.79131588</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2249,11 +2329,19 @@
         <v>-45865065.95241588</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2282,11 +2370,17 @@
         <v>-43815190.18221588</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2315,11 +2409,17 @@
         <v>-44829953.83621588</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2348,11 +2448,17 @@
         <v>-54403306.65061588</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2381,11 +2487,17 @@
         <v>-54403306.65061588</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2417,8 +2529,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2450,8 +2568,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2483,8 +2607,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2516,8 +2646,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2549,8 +2685,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2582,8 +2724,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2615,8 +2763,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2648,8 +2802,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2681,8 +2841,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2714,8 +2880,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2747,8 +2919,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2780,8 +2958,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2813,8 +2997,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2846,8 +3036,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2879,8 +3075,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2912,8 +3114,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2945,8 +3153,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2978,8 +3192,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3011,8 +3231,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3041,13 +3267,19 @@
         <v>-61856999.46155423</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0.4044</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>1.01849159248269</v>
       </c>
       <c r="M80" t="inlineStr"/>
     </row>
@@ -3074,7 +3306,7 @@
         <v>-77517289.96885423</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3173,7 +3405,7 @@
         <v>-73958027.87235424</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3206,7 +3438,7 @@
         <v>-73958027.87235424</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3239,7 +3471,7 @@
         <v>-71900606.87235424</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3272,7 +3504,7 @@
         <v>-71900606.87235424</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3305,7 +3537,7 @@
         <v>-71911218.75095424</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3569,7 +3801,7 @@
         <v>-71452904.85635425</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3635,7 +3867,7 @@
         <v>-72036299.59935425</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3701,7 +3933,7 @@
         <v>-72034046.69485424</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4394,14 +4626,10 @@
         <v>-106598946.6013542</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.4059</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.4059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
@@ -4431,19 +4659,11 @@
         <v>-106621821.1197542</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.4065</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.4059</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4475,14 +4695,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>0.4059</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4577,7 +4791,7 @@
         <v>142414320.5480458</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5204,14 +5418,10 @@
         <v>116931664.7492458</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.402</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0.402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
@@ -5244,14 +5454,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>0.402</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5283,14 +5487,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>0.402</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6177,7 +6375,7 @@
         <v>122120825.5479015</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6243,7 +6441,7 @@
         <v>122120825.5479015</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6276,7 +6474,7 @@
         <v>122120825.5479015</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6309,7 +6507,7 @@
         <v>122116464.6342015</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6375,7 +6573,7 @@
         <v>122161439.2450015</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6474,7 +6672,7 @@
         <v>122169934.2057015</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6507,7 +6705,7 @@
         <v>122169934.2057015</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6837,7 +7035,7 @@
         <v>119857070.0755015</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6870,7 +7068,7 @@
         <v>119661810.9764015</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6903,7 +7101,7 @@
         <v>119792486.5651015</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6969,7 +7167,7 @@
         <v>119792486.5651015</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7002,7 +7200,7 @@
         <v>119792486.5651015</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7035,7 +7233,7 @@
         <v>119799677.1923897</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7068,7 +7266,7 @@
         <v>119013208.3559897</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7101,7 +7299,7 @@
         <v>119133208.3559897</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7134,7 +7332,7 @@
         <v>113919005.4028897</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7167,7 +7365,7 @@
         <v>112170148.7742897</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7398,7 +7596,7 @@
         <v>106706086.0088897</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7431,7 +7629,7 @@
         <v>106618780.9260897</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7464,7 +7662,7 @@
         <v>106606451.9780897</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7497,7 +7695,7 @@
         <v>106599473.8554897</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>

--- a/BackTest/2020-01-21 BackTest BTT.xlsx
+++ b/BackTest/2020-01-21 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M264"/>
+  <dimension ref="A1:L264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>462574.892</v>
       </c>
       <c r="G2" t="n">
-        <v>-32060260.14002985</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>349832.2646</v>
       </c>
       <c r="G3" t="n">
-        <v>-32410092.40462985</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>568948.0659</v>
       </c>
       <c r="G4" t="n">
-        <v>-31841144.33872985</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>142948.5011</v>
       </c>
       <c r="G5" t="n">
-        <v>-31984092.83982985</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>3199.166</v>
       </c>
       <c r="G6" t="n">
-        <v>-31980893.67382985</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>4511.2951</v>
       </c>
       <c r="G7" t="n">
-        <v>-31980893.67382985</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>7142446.4028</v>
       </c>
       <c r="G8" t="n">
-        <v>-39123340.07662985</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>3144001.2666</v>
       </c>
       <c r="G9" t="n">
-        <v>-35979338.81002985</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,19 @@
         <v>1976.1855</v>
       </c>
       <c r="G10" t="n">
-        <v>-35977362.62452985</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>0.4018</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4018</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +717,21 @@
         <v>1603460.3563</v>
       </c>
       <c r="G11" t="n">
-        <v>-34373902.26822984</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>0.4018</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +753,21 @@
         <v>1657186.1054</v>
       </c>
       <c r="G12" t="n">
-        <v>-32716716.16282984</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0.4018</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +789,15 @@
         <v>30487.8095</v>
       </c>
       <c r="G13" t="n">
-        <v>-32716716.16282984</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +819,15 @@
         <v>66128.58500000001</v>
       </c>
       <c r="G14" t="n">
-        <v>-32716716.16282984</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +849,15 @@
         <v>72586.28630000001</v>
       </c>
       <c r="G15" t="n">
-        <v>-32789302.44912984</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +879,15 @@
         <v>96553.39939999999</v>
       </c>
       <c r="G16" t="n">
-        <v>-32885855.84852984</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +909,15 @@
         <v>205727.435</v>
       </c>
       <c r="G17" t="n">
-        <v>-33091583.28352984</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +939,15 @@
         <v>64098.5834</v>
       </c>
       <c r="G18" t="n">
-        <v>-33091583.28352984</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +969,15 @@
         <v>2460.06389776</v>
       </c>
       <c r="G19" t="n">
-        <v>-33089123.21963208</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +999,15 @@
         <v>1483898.0472</v>
       </c>
       <c r="G20" t="n">
-        <v>-31605225.17243208</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1029,15 @@
         <v>632609.1663</v>
       </c>
       <c r="G21" t="n">
-        <v>-31605225.17243208</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1059,15 @@
         <v>569487.9337000001</v>
       </c>
       <c r="G22" t="n">
-        <v>-32174713.10613208</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1089,15 @@
         <v>5493000</v>
       </c>
       <c r="G23" t="n">
-        <v>-37667713.10613208</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1119,15 @@
         <v>398309.3392</v>
       </c>
       <c r="G24" t="n">
-        <v>-38066022.44533207</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1149,15 @@
         <v>99966.7779</v>
       </c>
       <c r="G25" t="n">
-        <v>-38165989.22323208</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1179,15 @@
         <v>473726.4491</v>
       </c>
       <c r="G26" t="n">
-        <v>-37692262.77413207</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1209,15 @@
         <v>220576.1414</v>
       </c>
       <c r="G27" t="n">
-        <v>-37912838.91553207</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1239,15 @@
         <v>2249.0249</v>
       </c>
       <c r="G28" t="n">
-        <v>-37910589.89063208</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1269,15 @@
         <v>2469.7456162</v>
       </c>
       <c r="G29" t="n">
-        <v>-37908120.14501588</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1299,15 @@
         <v>65732.8069</v>
       </c>
       <c r="G30" t="n">
-        <v>-37973852.95191588</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1329,15 @@
         <v>5891385.0089</v>
       </c>
       <c r="G31" t="n">
-        <v>-32082467.94301588</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1359,15 @@
         <v>21722.9619</v>
       </c>
       <c r="G32" t="n">
-        <v>-32060744.98111588</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1389,15 @@
         <v>21372.1047</v>
       </c>
       <c r="G33" t="n">
-        <v>-32060744.98111588</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1419,15 @@
         <v>1500</v>
       </c>
       <c r="G34" t="n">
-        <v>-32062244.98111588</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1449,15 @@
         <v>17757421.1829</v>
       </c>
       <c r="G35" t="n">
-        <v>-49819666.16401588</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1479,15 @@
         <v>1251.4632</v>
       </c>
       <c r="G36" t="n">
-        <v>-49818414.70081588</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1509,15 @@
         <v>1500</v>
       </c>
       <c r="G37" t="n">
-        <v>-49818414.70081588</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1539,15 @@
         <v>1500</v>
       </c>
       <c r="G38" t="n">
-        <v>-49818414.70081588</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1569,15 @@
         <v>1250.4298</v>
       </c>
       <c r="G39" t="n">
-        <v>-49817164.27101588</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1599,15 @@
         <v>10000</v>
       </c>
       <c r="G40" t="n">
-        <v>-49817164.27101588</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1629,15 @@
         <v>616664.5946</v>
       </c>
       <c r="G41" t="n">
-        <v>-50433828.86561588</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1659,15 @@
         <v>3106.0934</v>
       </c>
       <c r="G42" t="n">
-        <v>-50433828.86561588</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,22 +1689,15 @@
         <v>20000</v>
       </c>
       <c r="G43" t="n">
-        <v>-50433828.86561588</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.4043</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.4043</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1838,26 +1719,15 @@
         <v>1314561.4735</v>
       </c>
       <c r="G44" t="n">
-        <v>-51748390.33911588</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.4043</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.4043</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1879,26 +1749,15 @@
         <v>1250</v>
       </c>
       <c r="G45" t="n">
-        <v>-51747140.33911588</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.4015</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.4043</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1920,22 +1779,15 @@
         <v>67738.38959999999</v>
       </c>
       <c r="G46" t="n">
-        <v>-51814878.72871588</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1957,26 +1809,15 @@
         <v>119979.0051</v>
       </c>
       <c r="G47" t="n">
-        <v>-51934857.73381588</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.4043</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1998,26 +1839,15 @@
         <v>1450</v>
       </c>
       <c r="G48" t="n">
-        <v>-51933407.73381588</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.4012</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2039,26 +1869,15 @@
         <v>19063.5753</v>
       </c>
       <c r="G49" t="n">
-        <v>-51952471.30911588</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.4036</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2080,26 +1899,15 @@
         <v>519498.0817</v>
       </c>
       <c r="G50" t="n">
-        <v>-51952471.30911588</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.4034</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2121,26 +1929,15 @@
         <v>1247.8919</v>
       </c>
       <c r="G51" t="n">
-        <v>-51951223.41721588</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.4034</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2162,26 +1959,15 @@
         <v>1250.223</v>
       </c>
       <c r="G52" t="n">
-        <v>-51949973.19421588</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.4038</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2203,26 +1989,15 @@
         <v>6039956.4029</v>
       </c>
       <c r="G53" t="n">
-        <v>-45910016.79131588</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.4042</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2244,26 +2019,15 @@
         <v>2126.5826</v>
       </c>
       <c r="G54" t="n">
-        <v>-45910016.79131588</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2285,26 +2049,15 @@
         <v>3802.3635</v>
       </c>
       <c r="G55" t="n">
-        <v>-45910016.79131588</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2326,26 +2079,15 @@
         <v>44950.8389</v>
       </c>
       <c r="G56" t="n">
-        <v>-45865065.95241588</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2367,24 +2109,15 @@
         <v>2049875.7702</v>
       </c>
       <c r="G57" t="n">
-        <v>-43815190.18221588</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2406,24 +2139,15 @@
         <v>1014763.654</v>
       </c>
       <c r="G58" t="n">
-        <v>-44829953.83621588</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2445,24 +2169,15 @@
         <v>9573352.8144</v>
       </c>
       <c r="G59" t="n">
-        <v>-54403306.65061588</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2484,24 +2199,15 @@
         <v>9000000</v>
       </c>
       <c r="G60" t="n">
-        <v>-54403306.65061588</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2523,24 +2229,15 @@
         <v>1404329.9507</v>
       </c>
       <c r="G61" t="n">
-        <v>-55807636.60131588</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,24 +2259,15 @@
         <v>1402757.4866</v>
       </c>
       <c r="G62" t="n">
-        <v>-54404879.11471588</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2601,24 +2289,15 @@
         <v>1274.2488</v>
       </c>
       <c r="G63" t="n">
-        <v>-54403604.86591588</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2640,24 +2319,15 @@
         <v>2526284.1403</v>
       </c>
       <c r="G64" t="n">
-        <v>-54403604.86591588</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2679,24 +2349,15 @@
         <v>1363664.38366164</v>
       </c>
       <c r="G65" t="n">
-        <v>-53039940.48225424</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2718,24 +2379,15 @@
         <v>3732.1955</v>
       </c>
       <c r="G66" t="n">
-        <v>-53036208.28675424</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2757,24 +2409,15 @@
         <v>514873.0215</v>
       </c>
       <c r="G67" t="n">
-        <v>-52521335.26525424</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2796,24 +2439,15 @@
         <v>11226947.9277</v>
       </c>
       <c r="G68" t="n">
-        <v>-63748283.19295423</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2835,24 +2469,15 @@
         <v>29897.0017</v>
       </c>
       <c r="G69" t="n">
-        <v>-63718386.19125424</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2874,24 +2499,15 @@
         <v>493354</v>
       </c>
       <c r="G70" t="n">
-        <v>-64211740.19125424</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2913,24 +2529,15 @@
         <v>3000000</v>
       </c>
       <c r="G71" t="n">
-        <v>-64211740.19125424</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2952,24 +2559,15 @@
         <v>10000</v>
       </c>
       <c r="G72" t="n">
-        <v>-64211740.19125424</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2991,24 +2589,15 @@
         <v>3103202.6898</v>
       </c>
       <c r="G73" t="n">
-        <v>-61108537.50145423</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3030,24 +2619,15 @@
         <v>1571</v>
       </c>
       <c r="G74" t="n">
-        <v>-61106966.50145423</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3069,24 +2649,15 @@
         <v>21722.9619</v>
       </c>
       <c r="G75" t="n">
-        <v>-61085243.53955423</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3108,24 +2679,15 @@
         <v>79340.102</v>
       </c>
       <c r="G76" t="n">
-        <v>-61005903.43755423</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3147,24 +2709,15 @@
         <v>104552.3551</v>
       </c>
       <c r="G77" t="n">
-        <v>-61005903.43755423</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3186,24 +2739,15 @@
         <v>3000000</v>
       </c>
       <c r="G78" t="n">
-        <v>-64005903.43755423</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3225,24 +2769,15 @@
         <v>890383.42</v>
       </c>
       <c r="G79" t="n">
-        <v>-63115520.01755423</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,24 +2799,15 @@
         <v>1258520.556</v>
       </c>
       <c r="G80" t="n">
-        <v>-61856999.46155423</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1.01849159248269</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3303,18 +2829,15 @@
         <v>15660290.5073</v>
       </c>
       <c r="G81" t="n">
-        <v>-77517289.96885423</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +2859,15 @@
         <v>1440</v>
       </c>
       <c r="G82" t="n">
-        <v>-77518729.96885423</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3369,18 +2889,15 @@
         <v>3560702.0965</v>
       </c>
       <c r="G83" t="n">
-        <v>-73958027.87235424</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3402,18 +2919,15 @@
         <v>16218901.449</v>
       </c>
       <c r="G84" t="n">
-        <v>-73958027.87235424</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3435,18 +2949,15 @@
         <v>2427022.1162</v>
       </c>
       <c r="G85" t="n">
-        <v>-73958027.87235424</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3468,18 +2979,15 @@
         <v>2057421</v>
       </c>
       <c r="G86" t="n">
-        <v>-71900606.87235424</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3501,18 +3009,15 @@
         <v>313671.0398445</v>
       </c>
       <c r="G87" t="n">
-        <v>-71900606.87235424</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3534,18 +3039,15 @@
         <v>10611.8786</v>
       </c>
       <c r="G88" t="n">
-        <v>-71911218.75095424</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3567,18 +3069,15 @@
         <v>2678.5031</v>
       </c>
       <c r="G89" t="n">
-        <v>-71908540.24785425</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3600,18 +3099,15 @@
         <v>1368655.5791</v>
       </c>
       <c r="G90" t="n">
-        <v>-73277195.82695425</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3633,18 +3129,15 @@
         <v>472616.2062</v>
       </c>
       <c r="G91" t="n">
-        <v>-73749812.03315425</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3666,18 +3159,15 @@
         <v>9020852.880999999</v>
       </c>
       <c r="G92" t="n">
-        <v>-64728959.15215425</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3699,18 +3189,15 @@
         <v>812609.2046000001</v>
       </c>
       <c r="G93" t="n">
-        <v>-65541568.35675425</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3732,18 +3219,15 @@
         <v>1226.1629</v>
       </c>
       <c r="G94" t="n">
-        <v>-65540342.19385425</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3765,18 +3249,15 @@
         <v>5912562.6625</v>
       </c>
       <c r="G95" t="n">
-        <v>-71452904.85635425</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3798,18 +3279,15 @@
         <v>14722.5451</v>
       </c>
       <c r="G96" t="n">
-        <v>-71452904.85635425</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3831,18 +3309,15 @@
         <v>1500</v>
       </c>
       <c r="G97" t="n">
-        <v>-71452904.85635425</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3864,18 +3339,15 @@
         <v>583394.743</v>
       </c>
       <c r="G98" t="n">
-        <v>-72036299.59935425</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3897,18 +3369,15 @@
         <v>3669.0682</v>
       </c>
       <c r="G99" t="n">
-        <v>-72032630.53115425</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3930,18 +3399,15 @@
         <v>1416.1637</v>
       </c>
       <c r="G100" t="n">
-        <v>-72034046.69485424</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3963,18 +3429,15 @@
         <v>182236.1796</v>
       </c>
       <c r="G101" t="n">
-        <v>-72034046.69485424</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3996,18 +3459,15 @@
         <v>203876.8993</v>
       </c>
       <c r="G102" t="n">
-        <v>-72237923.59415424</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4029,18 +3489,15 @@
         <v>116617.5614</v>
       </c>
       <c r="G103" t="n">
-        <v>-72354541.15555423</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4062,18 +3519,15 @@
         <v>16430105.3698</v>
       </c>
       <c r="G104" t="n">
-        <v>-88784646.52535424</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4095,18 +3549,15 @@
         <v>5000</v>
       </c>
       <c r="G105" t="n">
-        <v>-88779646.52535424</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4128,18 +3579,15 @@
         <v>177692.6332</v>
       </c>
       <c r="G106" t="n">
-        <v>-88957339.15855424</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4161,18 +3609,15 @@
         <v>2500.1356</v>
       </c>
       <c r="G107" t="n">
-        <v>-88957339.15855424</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4194,18 +3639,15 @@
         <v>1455430.0949</v>
       </c>
       <c r="G108" t="n">
-        <v>-87501909.06365424</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4227,18 +3669,15 @@
         <v>5299244.2595</v>
       </c>
       <c r="G109" t="n">
-        <v>-87501909.06365424</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4260,18 +3699,15 @@
         <v>2791516.2139</v>
       </c>
       <c r="G110" t="n">
-        <v>-90293425.27755424</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4293,18 +3729,15 @@
         <v>20020.0201</v>
       </c>
       <c r="G111" t="n">
-        <v>-90293425.27755424</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4326,18 +3759,15 @@
         <v>128943.4949</v>
       </c>
       <c r="G112" t="n">
-        <v>-90293425.27755424</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4359,18 +3789,15 @@
         <v>8606.895699999999</v>
       </c>
       <c r="G113" t="n">
-        <v>-90302032.17325424</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4392,18 +3819,15 @@
         <v>7384.4659</v>
       </c>
       <c r="G114" t="n">
-        <v>-90294647.70735423</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4425,18 +3849,15 @@
         <v>3363.8547</v>
       </c>
       <c r="G115" t="n">
-        <v>-90291283.85265423</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4458,18 +3879,15 @@
         <v>4445265.6678</v>
       </c>
       <c r="G116" t="n">
-        <v>-94736549.52045423</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4491,18 +3909,15 @@
         <v>190426.5453</v>
       </c>
       <c r="G117" t="n">
-        <v>-94736549.52045423</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4524,18 +3939,15 @@
         <v>3157676.8194</v>
       </c>
       <c r="G118" t="n">
-        <v>-94736549.52045423</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4557,18 +3969,15 @@
         <v>11886771.5993</v>
       </c>
       <c r="G119" t="n">
-        <v>-106623321.1197542</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4590,18 +3999,15 @@
         <v>22874.5184</v>
       </c>
       <c r="G120" t="n">
-        <v>-106600446.6013542</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4623,18 +4029,15 @@
         <v>1500</v>
       </c>
       <c r="G121" t="n">
-        <v>-106598946.6013542</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4656,18 +4059,15 @@
         <v>22874.5184</v>
       </c>
       <c r="G122" t="n">
-        <v>-106621821.1197542</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4689,18 +4089,15 @@
         <v>247500000</v>
       </c>
       <c r="G123" t="n">
-        <v>140878178.8802458</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4722,18 +4119,15 @@
         <v>1705000000</v>
       </c>
       <c r="G124" t="n">
-        <v>140878178.8802458</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4755,18 +4149,15 @@
         <v>1543391.7533</v>
       </c>
       <c r="G125" t="n">
-        <v>142421570.6335458</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4788,18 +4179,15 @@
         <v>7250.0855</v>
       </c>
       <c r="G126" t="n">
-        <v>142414320.5480458</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4821,18 +4209,15 @@
         <v>36664.037</v>
       </c>
       <c r="G127" t="n">
-        <v>142377656.5110458</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4854,18 +4239,15 @@
         <v>3060.7755</v>
       </c>
       <c r="G128" t="n">
-        <v>142374595.7355458</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4887,18 +4269,15 @@
         <v>50000.767</v>
       </c>
       <c r="G129" t="n">
-        <v>142424596.5025458</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4920,18 +4299,15 @@
         <v>1243.5216</v>
       </c>
       <c r="G130" t="n">
-        <v>142424596.5025458</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4953,18 +4329,15 @@
         <v>54547.5085</v>
       </c>
       <c r="G131" t="n">
-        <v>142424596.5025458</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4986,18 +4359,15 @@
         <v>11729.6625</v>
       </c>
       <c r="G132" t="n">
-        <v>142412866.8400458</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5019,18 +4389,15 @@
         <v>3244711.1336</v>
       </c>
       <c r="G133" t="n">
-        <v>139168155.7064458</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5052,18 +4419,15 @@
         <v>3000000</v>
       </c>
       <c r="G134" t="n">
-        <v>142168155.7064458</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5085,18 +4449,15 @@
         <v>443884.1339</v>
       </c>
       <c r="G135" t="n">
-        <v>141724271.5725458</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5118,18 +4479,15 @@
         <v>1381934.8835</v>
       </c>
       <c r="G136" t="n">
-        <v>141724271.5725458</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5151,18 +4509,15 @@
         <v>0.0001</v>
       </c>
       <c r="G137" t="n">
-        <v>141724271.5724458</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5184,18 +4539,15 @@
         <v>37200</v>
       </c>
       <c r="G138" t="n">
-        <v>141687071.5724458</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5217,18 +4569,15 @@
         <v>7496581.3092</v>
       </c>
       <c r="G139" t="n">
-        <v>134190490.2632458</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5250,18 +4599,15 @@
         <v>3965289.5182</v>
       </c>
       <c r="G140" t="n">
-        <v>134190490.2632458</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5283,18 +4629,15 @@
         <v>19996576.7997</v>
       </c>
       <c r="G141" t="n">
-        <v>114193913.4635458</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5316,18 +4659,15 @@
         <v>2737066.0915</v>
       </c>
       <c r="G142" t="n">
-        <v>116930979.5550458</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5349,18 +4689,15 @@
         <v>6517.665</v>
       </c>
       <c r="G143" t="n">
-        <v>116924461.8900458</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5382,18 +4719,15 @@
         <v>5874.7271</v>
       </c>
       <c r="G144" t="n">
-        <v>116930336.6171458</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5415,18 +4749,15 @@
         <v>1328.1321</v>
       </c>
       <c r="G145" t="n">
-        <v>116931664.7492458</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5448,18 +4779,15 @@
         <v>3697864.74919853</v>
       </c>
       <c r="G146" t="n">
-        <v>120629529.4984443</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5481,18 +4809,15 @@
         <v>153954.357</v>
       </c>
       <c r="G147" t="n">
-        <v>120475575.1414443</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5514,18 +4839,15 @@
         <v>92909.2997</v>
       </c>
       <c r="G148" t="n">
-        <v>120475575.1414443</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5547,18 +4869,15 @@
         <v>914964.1522</v>
       </c>
       <c r="G149" t="n">
-        <v>119560610.9892443</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5580,18 +4899,15 @@
         <v>1260.428</v>
       </c>
       <c r="G150" t="n">
-        <v>119561871.4172443</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5613,18 +4929,15 @@
         <v>12707.7548</v>
       </c>
       <c r="G151" t="n">
-        <v>119549163.6624443</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5646,18 +4959,15 @@
         <v>121998.4125</v>
       </c>
       <c r="G152" t="n">
-        <v>119671162.0749443</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5679,18 +4989,15 @@
         <v>7142.85714285</v>
       </c>
       <c r="G153" t="n">
-        <v>119664019.2178015</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5712,18 +5019,15 @@
         <v>501337.111</v>
       </c>
       <c r="G154" t="n">
-        <v>119162682.1068015</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5745,18 +5049,15 @@
         <v>6505.4346</v>
       </c>
       <c r="G155" t="n">
-        <v>119156176.6722015</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5778,18 +5079,15 @@
         <v>3682.26600985</v>
       </c>
       <c r="G156" t="n">
-        <v>119159858.9382113</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5811,18 +5109,15 @@
         <v>14091.2718</v>
       </c>
       <c r="G157" t="n">
-        <v>119145767.6664113</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5844,18 +5139,15 @@
         <v>2690400.3617</v>
       </c>
       <c r="G158" t="n">
-        <v>121836168.0281113</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5877,18 +5169,15 @@
         <v>400634.1548</v>
       </c>
       <c r="G159" t="n">
-        <v>121836168.0281113</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5910,18 +5199,15 @@
         <v>206887.2308</v>
       </c>
       <c r="G160" t="n">
-        <v>121836168.0281113</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5943,18 +5229,15 @@
         <v>1144068.2204</v>
       </c>
       <c r="G161" t="n">
-        <v>121836168.0281113</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5976,18 +5259,15 @@
         <v>1430436.71099015</v>
       </c>
       <c r="G162" t="n">
-        <v>123266604.7391015</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6009,18 +5289,15 @@
         <v>2376760.3378</v>
       </c>
       <c r="G163" t="n">
-        <v>123266604.7391015</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6042,18 +5319,15 @@
         <v>336456.7919</v>
       </c>
       <c r="G164" t="n">
-        <v>122930147.9472015</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6075,18 +5349,15 @@
         <v>17988.3136</v>
       </c>
       <c r="G165" t="n">
-        <v>122948136.2608015</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6108,18 +5379,15 @@
         <v>1367.0641</v>
       </c>
       <c r="G166" t="n">
-        <v>122948136.2608015</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6141,18 +5409,15 @@
         <v>2600</v>
       </c>
       <c r="G167" t="n">
-        <v>122950736.2608015</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6174,18 +5439,15 @@
         <v>1216472.1853</v>
       </c>
       <c r="G168" t="n">
-        <v>124167208.4461015</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6207,18 +5469,15 @@
         <v>2488.8004</v>
       </c>
       <c r="G169" t="n">
-        <v>124167208.4461015</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6240,18 +5499,15 @@
         <v>2327011.5974</v>
       </c>
       <c r="G170" t="n">
-        <v>124167208.4461015</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6273,18 +5529,15 @@
         <v>2066756.744</v>
       </c>
       <c r="G171" t="n">
-        <v>122100451.7021015</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6306,18 +5559,15 @@
         <v>20373.8458</v>
       </c>
       <c r="G172" t="n">
-        <v>122120825.5479015</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6339,18 +5589,15 @@
         <v>29569.2853</v>
       </c>
       <c r="G173" t="n">
-        <v>122120825.5479015</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6372,18 +5619,15 @@
         <v>2487.5622</v>
       </c>
       <c r="G174" t="n">
-        <v>122120825.5479015</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6405,18 +5649,15 @@
         <v>2464.8756</v>
       </c>
       <c r="G175" t="n">
-        <v>122120825.5479015</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6438,18 +5679,15 @@
         <v>357811.1307</v>
       </c>
       <c r="G176" t="n">
-        <v>122120825.5479015</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6471,18 +5709,15 @@
         <v>51442.3407</v>
       </c>
       <c r="G177" t="n">
-        <v>122120825.5479015</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6504,18 +5739,15 @@
         <v>4360.9137</v>
       </c>
       <c r="G178" t="n">
-        <v>122116464.6342015</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6537,18 +5769,15 @@
         <v>44974.6108</v>
       </c>
       <c r="G179" t="n">
-        <v>122161439.2450015</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6570,18 +5799,15 @@
         <v>2464.2682</v>
       </c>
       <c r="G180" t="n">
-        <v>122161439.2450015</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6603,18 +5829,15 @@
         <v>2440.2149</v>
       </c>
       <c r="G181" t="n">
-        <v>122161439.2450015</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6636,18 +5859,15 @@
         <v>2491.9015</v>
       </c>
       <c r="G182" t="n">
-        <v>122158947.3435015</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6669,18 +5889,15 @@
         <v>10986.8622</v>
       </c>
       <c r="G183" t="n">
-        <v>122169934.2057015</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6702,18 +5919,15 @@
         <v>170000</v>
       </c>
       <c r="G184" t="n">
-        <v>122169934.2057015</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6735,18 +5949,15 @@
         <v>2459.4196</v>
       </c>
       <c r="G185" t="n">
-        <v>122172393.6253015</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6768,18 +5979,15 @@
         <v>37491.8182</v>
       </c>
       <c r="G186" t="n">
-        <v>122134901.8071015</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6801,18 +6009,15 @@
         <v>215302.1653</v>
       </c>
       <c r="G187" t="n">
-        <v>122134901.8071015</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6834,18 +6039,15 @@
         <v>1432.6404</v>
       </c>
       <c r="G188" t="n">
-        <v>122136334.4475015</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6867,18 +6069,15 @@
         <v>1305.1443</v>
       </c>
       <c r="G189" t="n">
-        <v>122135029.3032015</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6900,18 +6099,15 @@
         <v>1440.6881</v>
       </c>
       <c r="G190" t="n">
-        <v>122136469.9913015</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6933,18 +6129,15 @@
         <v>120778.6842</v>
       </c>
       <c r="G191" t="n">
-        <v>122015691.3071015</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6966,18 +6159,15 @@
         <v>8684.2827</v>
       </c>
       <c r="G192" t="n">
-        <v>122015691.3071015</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6999,18 +6189,15 @@
         <v>48804.2948</v>
       </c>
       <c r="G193" t="n">
-        <v>122064495.6019015</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7032,18 +6219,15 @@
         <v>2207425.5264</v>
       </c>
       <c r="G194" t="n">
-        <v>119857070.0755015</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7065,18 +6249,15 @@
         <v>195259.0991</v>
       </c>
       <c r="G195" t="n">
-        <v>119661810.9764015</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7098,18 +6279,15 @@
         <v>130675.5887</v>
       </c>
       <c r="G196" t="n">
-        <v>119792486.5651015</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7131,18 +6309,15 @@
         <v>19699.4589</v>
       </c>
       <c r="G197" t="n">
-        <v>119792486.5651015</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7164,18 +6339,15 @@
         <v>2170.5469</v>
       </c>
       <c r="G198" t="n">
-        <v>119792486.5651015</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7197,18 +6369,15 @@
         <v>2903.8823</v>
       </c>
       <c r="G199" t="n">
-        <v>119792486.5651015</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7230,18 +6399,15 @@
         <v>7190.62728825</v>
       </c>
       <c r="G200" t="n">
-        <v>119799677.1923897</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7263,18 +6429,15 @@
         <v>786468.8364</v>
       </c>
       <c r="G201" t="n">
-        <v>119013208.3559897</v>
-      </c>
-      <c r="H201" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7296,18 +6459,15 @@
         <v>120000</v>
       </c>
       <c r="G202" t="n">
-        <v>119133208.3559897</v>
-      </c>
-      <c r="H202" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7329,18 +6489,15 @@
         <v>5214202.9531</v>
       </c>
       <c r="G203" t="n">
-        <v>113919005.4028897</v>
-      </c>
-      <c r="H203" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7362,18 +6519,15 @@
         <v>1748856.6286</v>
       </c>
       <c r="G204" t="n">
-        <v>112170148.7742897</v>
-      </c>
-      <c r="H204" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7395,18 +6549,15 @@
         <v>1773921.9112</v>
       </c>
       <c r="G205" t="n">
-        <v>110396226.8630897</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7428,18 +6579,15 @@
         <v>525343.2689</v>
       </c>
       <c r="G206" t="n">
-        <v>110396226.8630897</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7461,18 +6609,15 @@
         <v>428662.1846</v>
       </c>
       <c r="G207" t="n">
-        <v>110396226.8630897</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7494,18 +6639,15 @@
         <v>3699586.7775</v>
       </c>
       <c r="G208" t="n">
-        <v>106696640.0855897</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7527,18 +6669,15 @@
         <v>1491.9233</v>
       </c>
       <c r="G209" t="n">
-        <v>106698132.0088897</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7560,18 +6699,15 @@
         <v>7954</v>
       </c>
       <c r="G210" t="n">
-        <v>106706086.0088897</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7593,18 +6729,15 @@
         <v>6972.829</v>
       </c>
       <c r="G211" t="n">
-        <v>106706086.0088897</v>
-      </c>
-      <c r="H211" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7626,18 +6759,15 @@
         <v>87305.0828</v>
       </c>
       <c r="G212" t="n">
-        <v>106618780.9260897</v>
-      </c>
-      <c r="H212" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7659,18 +6789,15 @@
         <v>12328.948</v>
       </c>
       <c r="G213" t="n">
-        <v>106606451.9780897</v>
-      </c>
-      <c r="H213" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7692,18 +6819,15 @@
         <v>6978.1226</v>
       </c>
       <c r="G214" t="n">
-        <v>106599473.8554897</v>
-      </c>
-      <c r="H214" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7725,18 +6849,15 @@
         <v>3172.8283</v>
       </c>
       <c r="G215" t="n">
-        <v>106599473.8554897</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7758,18 +6879,15 @@
         <v>3524.67024914</v>
       </c>
       <c r="G216" t="n">
-        <v>106602998.5257389</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7791,18 +6909,15 @@
         <v>3524.6702</v>
       </c>
       <c r="G217" t="n">
-        <v>106599473.8555388</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7824,18 +6939,15 @@
         <v>2499</v>
       </c>
       <c r="G218" t="n">
-        <v>106601972.8555388</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7857,18 +6969,15 @@
         <v>96402.8683</v>
       </c>
       <c r="G219" t="n">
-        <v>106505569.9872388</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7890,18 +6999,15 @@
         <v>103597.1317</v>
       </c>
       <c r="G220" t="n">
-        <v>106505569.9872388</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7923,18 +7029,15 @@
         <v>17029.79970688</v>
       </c>
       <c r="G221" t="n">
-        <v>106522599.7869457</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7956,18 +7059,15 @@
         <v>350000</v>
       </c>
       <c r="G222" t="n">
-        <v>106172599.7869457</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7989,18 +7089,15 @@
         <v>1538.7728</v>
       </c>
       <c r="G223" t="n">
-        <v>106171061.0141457</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8022,18 +7119,15 @@
         <v>39600</v>
       </c>
       <c r="G224" t="n">
-        <v>106171061.0141457</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8055,18 +7149,15 @@
         <v>10000</v>
       </c>
       <c r="G225" t="n">
-        <v>106181061.0141457</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8088,18 +7179,15 @@
         <v>303098.0818</v>
       </c>
       <c r="G226" t="n">
-        <v>106484159.0959457</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8121,18 +7209,15 @@
         <v>18783.5078</v>
       </c>
       <c r="G227" t="n">
-        <v>106484159.0959457</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8154,18 +7239,15 @@
         <v>150000</v>
       </c>
       <c r="G228" t="n">
-        <v>106334159.0959457</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8187,18 +7269,15 @@
         <v>915477.7642</v>
       </c>
       <c r="G229" t="n">
-        <v>107249636.8601457</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8220,18 +7299,15 @@
         <v>1304055.8792</v>
       </c>
       <c r="G230" t="n">
-        <v>105945580.9809457</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8253,18 +7329,15 @@
         <v>14979.4386</v>
       </c>
       <c r="G231" t="n">
-        <v>105945580.9809457</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8286,18 +7359,15 @@
         <v>5142.01762977</v>
       </c>
       <c r="G232" t="n">
-        <v>105950722.9985755</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8319,18 +7389,15 @@
         <v>732921.5535</v>
       </c>
       <c r="G233" t="n">
-        <v>105217801.4450755</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8352,18 +7419,15 @@
         <v>4881.2147</v>
       </c>
       <c r="G234" t="n">
-        <v>105217801.4450755</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8385,18 +7449,15 @@
         <v>48894.9195</v>
       </c>
       <c r="G235" t="n">
-        <v>105168906.5255755</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8418,18 +7479,15 @@
         <v>382009.2049</v>
       </c>
       <c r="G236" t="n">
-        <v>105168906.5255755</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8451,18 +7509,15 @@
         <v>5545086.3527</v>
       </c>
       <c r="G237" t="n">
-        <v>105168906.5255755</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8484,18 +7539,15 @@
         <v>6313.6946</v>
       </c>
       <c r="G238" t="n">
-        <v>105162592.8309755</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8517,18 +7569,15 @@
         <v>76168.03200000001</v>
       </c>
       <c r="G239" t="n">
-        <v>105238760.8629755</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8550,18 +7599,15 @@
         <v>86820.5318</v>
       </c>
       <c r="G240" t="n">
-        <v>105238760.8629755</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8583,18 +7629,15 @@
         <v>8934.2701</v>
       </c>
       <c r="G241" t="n">
-        <v>105247695.1330755</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8616,18 +7659,15 @@
         <v>259452.0189</v>
       </c>
       <c r="G242" t="n">
-        <v>105247695.1330755</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8649,18 +7689,15 @@
         <v>519776.368</v>
       </c>
       <c r="G243" t="n">
-        <v>105247695.1330755</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8682,18 +7719,15 @@
         <v>3336435.3505</v>
       </c>
       <c r="G244" t="n">
-        <v>108584130.4835755</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8715,18 +7749,15 @@
         <v>533444.694</v>
       </c>
       <c r="G245" t="n">
-        <v>108050685.7895755</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8748,18 +7779,15 @@
         <v>1803.7152</v>
       </c>
       <c r="G246" t="n">
-        <v>108050685.7895755</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8781,18 +7809,15 @@
         <v>2623693.4511</v>
       </c>
       <c r="G247" t="n">
-        <v>105426992.3384755</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8814,18 +7839,15 @@
         <v>65641.4215</v>
       </c>
       <c r="G248" t="n">
-        <v>105361350.9169755</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8847,18 +7869,15 @@
         <v>106184.3357</v>
       </c>
       <c r="G249" t="n">
-        <v>105361350.9169755</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8880,18 +7899,15 @@
         <v>110114.6442</v>
       </c>
       <c r="G250" t="n">
-        <v>105361350.9169755</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8913,18 +7929,15 @@
         <v>2006.4182</v>
       </c>
       <c r="G251" t="n">
-        <v>105361350.9169755</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8946,18 +7959,15 @@
         <v>10299.5594</v>
       </c>
       <c r="G252" t="n">
-        <v>105351051.3575755</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8979,18 +7989,15 @@
         <v>11015769.3015</v>
       </c>
       <c r="G253" t="n">
-        <v>94335282.05607548</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9012,18 +8019,15 @@
         <v>737508.6649</v>
       </c>
       <c r="G254" t="n">
-        <v>94335282.05607548</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9045,18 +8049,15 @@
         <v>1079898.8063</v>
       </c>
       <c r="G255" t="n">
-        <v>93255383.24977548</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9078,18 +8079,15 @@
         <v>151252.1697</v>
       </c>
       <c r="G256" t="n">
-        <v>93104131.08007549</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9111,18 +8109,15 @@
         <v>764217.2651</v>
       </c>
       <c r="G257" t="n">
-        <v>93868348.34517549</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9144,18 +8139,15 @@
         <v>203267.3237</v>
       </c>
       <c r="G258" t="n">
-        <v>93665081.02147549</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9177,18 +8169,15 @@
         <v>60980.1971</v>
       </c>
       <c r="G259" t="n">
-        <v>93665081.02147549</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9210,18 +8199,15 @@
         <v>1226144.1331</v>
       </c>
       <c r="G260" t="n">
-        <v>92438936.88837549</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9243,18 +8229,15 @@
         <v>329837.2963</v>
       </c>
       <c r="G261" t="n">
-        <v>92438936.88837549</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9276,18 +8259,15 @@
         <v>368298.0213</v>
       </c>
       <c r="G262" t="n">
-        <v>92070638.86707549</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9309,18 +8289,15 @@
         <v>14070542.1122</v>
       </c>
       <c r="G263" t="n">
-        <v>78000096.75487548</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9342,18 +8319,15 @@
         <v>1972450.6956</v>
       </c>
       <c r="G264" t="n">
-        <v>76027646.05927548</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
